--- a/data/trans_orig/P6603-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>119865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107179</v>
+        <v>107744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130751</v>
+        <v>131181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7247067027544097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6480075933949552</v>
+        <v>0.6514202186229234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7905246479647856</v>
+        <v>0.7931213871604346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -765,19 +765,19 @@
         <v>100471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93304</v>
+        <v>92341</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105833</v>
+        <v>105705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9051307023125229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8405654611280839</v>
+        <v>0.8318855405623242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9534319140640247</v>
+        <v>0.95228463070498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -786,19 +786,19 @@
         <v>220337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205151</v>
+        <v>205138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>232676</v>
+        <v>233086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7971649148961354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7422231777354781</v>
+        <v>0.7421754839391072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.841805267515383</v>
+        <v>0.8432886971914568</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>24588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16176</v>
+        <v>16153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35268</v>
+        <v>35540</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.148659459391544</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09780093819043945</v>
+        <v>0.09765840550930434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2132283934950912</v>
+        <v>0.2148771094383034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>8385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4038</v>
+        <v>4098</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15108</v>
+        <v>15833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07553555378442341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03637947815691081</v>
+        <v>0.03691914325862233</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1361049270637789</v>
+        <v>0.1426375647779213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -857,19 +857,19 @@
         <v>32973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23845</v>
+        <v>22955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45603</v>
+        <v>45387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1192929256815667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08627120681250776</v>
+        <v>0.08305136314902485</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1649896811854105</v>
+        <v>0.1642058762476567</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>13689</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8065</v>
+        <v>7662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22594</v>
+        <v>21804</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08276309676886368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04876160084795673</v>
+        <v>0.04632435742546317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1366054830185976</v>
+        <v>0.1318298928189183</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6654</v>
+        <v>7548</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01933374390305365</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05994755574622018</v>
+        <v>0.0680010239336712</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -928,19 +928,19 @@
         <v>15835</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9792</v>
+        <v>9357</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24685</v>
+        <v>25256</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05728989188913866</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03542547443343554</v>
+        <v>0.03385182281929956</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08930953232505458</v>
+        <v>0.0913747318143619</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2901</v>
+        <v>3606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14535</v>
+        <v>13760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04387074108518259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01754011243936043</v>
+        <v>0.02180374044005379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0878768370899789</v>
+        <v>0.08319359201733605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>7256</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2850</v>
+        <v>2809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14629</v>
+        <v>14623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02625226753315931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01031150745725395</v>
+        <v>0.01016197624609584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05292793175644588</v>
+        <v>0.05290441945811976</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>168303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>150827</v>
+        <v>150191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>184659</v>
+        <v>183830</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6222342934006255</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5576266812833907</v>
+        <v>0.5552736760378555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6827051920203857</v>
+        <v>0.6796416312380013</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>105</v>
@@ -1116,19 +1116,19 @@
         <v>105936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95590</v>
+        <v>95788</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>114227</v>
+        <v>113722</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8097178662601346</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7306361774155845</v>
+        <v>0.7321500894174596</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8730906922036824</v>
+        <v>0.8692312812459012</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>262</v>
@@ -1137,19 +1137,19 @@
         <v>274239</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>255161</v>
+        <v>254476</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>294229</v>
+        <v>292955</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6833554286516782</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6358178060653987</v>
+        <v>0.6341109418187417</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7331687531929509</v>
+        <v>0.7299928746241463</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>46566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34622</v>
+        <v>34749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60708</v>
+        <v>62098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1721617054787187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1280025529642639</v>
+        <v>0.1284711004888291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2244434082021415</v>
+        <v>0.2295841838979209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1187,19 +1187,19 @@
         <v>19068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11788</v>
+        <v>12307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29276</v>
+        <v>28923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1457458874244898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09010223259483686</v>
+        <v>0.09406571822022491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2237695712548285</v>
+        <v>0.2210728732627388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1208,19 +1208,19 @@
         <v>65635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49709</v>
+        <v>52044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81826</v>
+        <v>81145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1635499387866597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1238666761126174</v>
+        <v>0.1296853652413404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2038962392205634</v>
+        <v>0.2021991748474854</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>41663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30468</v>
+        <v>30308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55750</v>
+        <v>55532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1540327555511637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1126443845166806</v>
+        <v>0.1120521918235286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2061129826352234</v>
+        <v>0.2053077757782995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1258,19 +1258,19 @@
         <v>5827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2137</v>
+        <v>2019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12714</v>
+        <v>11543</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04453624631537559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01633126200488526</v>
+        <v>0.0154358367750033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09717558194455227</v>
+        <v>0.08822608255388185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -1279,19 +1279,19 @@
         <v>47490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35749</v>
+        <v>35510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63114</v>
+        <v>63522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1183360230404503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08908057147113534</v>
+        <v>0.08848419375437853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1572696602570791</v>
+        <v>0.15828525591907</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>13949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6782</v>
+        <v>7560</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22707</v>
+        <v>23498</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05157124556949207</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02507483939936641</v>
+        <v>0.02795126216815573</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08394936562059466</v>
+        <v>0.08687648795677849</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>13949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6975</v>
+        <v>6938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23310</v>
+        <v>23174</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03475860952121172</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01737941399296167</v>
+        <v>0.0172892727308877</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05808540336510086</v>
+        <v>0.05774537586107076</v>
       </c>
     </row>
     <row r="13">
@@ -1446,19 +1446,19 @@
         <v>134036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121333</v>
+        <v>122142</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144304</v>
+        <v>144334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7628532907404518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6905591609589085</v>
+        <v>0.6951612309319223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8212926322068824</v>
+        <v>0.8214643613478155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1467,19 +1467,19 @@
         <v>78405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70220</v>
+        <v>70439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84702</v>
+        <v>84876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8291001132909157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.742553281382585</v>
+        <v>0.7448650858088619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8956967497012074</v>
+        <v>0.8975354693364066</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>205</v>
@@ -1488,19 +1488,19 @@
         <v>212441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197237</v>
+        <v>198037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224892</v>
+        <v>224661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7860327980968501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.729776351049942</v>
+        <v>0.7327365493249886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8321011094704414</v>
+        <v>0.8312476889481732</v>
       </c>
     </row>
     <row r="15">
@@ -1517,19 +1517,19 @@
         <v>25612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17498</v>
+        <v>17417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35089</v>
+        <v>36168</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1457712045308988</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09958858519487575</v>
+        <v>0.09912561495604387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1997062425200872</v>
+        <v>0.2058482151670256</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1538,19 +1538,19 @@
         <v>12180</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6784</v>
+        <v>6782</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19659</v>
+        <v>19571</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1287973836524467</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07173935775050233</v>
+        <v>0.07171894259305993</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2078883849893137</v>
+        <v>0.2069513255359644</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>37</v>
@@ -1559,19 +1559,19 @@
         <v>37792</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27667</v>
+        <v>28174</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>49837</v>
+        <v>50497</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1398321301606743</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1023692501115505</v>
+        <v>0.1042430291568949</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1843953913891135</v>
+        <v>0.1868392387631082</v>
       </c>
     </row>
     <row r="16">
@@ -1588,19 +1588,19 @@
         <v>14287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7865</v>
+        <v>8144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22074</v>
+        <v>22860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08131375982134521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04476250240218022</v>
+        <v>0.04634910220022618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1256342767434393</v>
+        <v>0.1301047361531543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1609,19 +1609,19 @@
         <v>3981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9124</v>
+        <v>9925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04210250305663758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01061799204095179</v>
+        <v>0.0105031067745821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09648096950897925</v>
+        <v>0.1049491429472379</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1630,19 +1630,19 @@
         <v>18269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10394</v>
+        <v>11231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27882</v>
+        <v>27940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06759389251844466</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03845686078139635</v>
+        <v>0.04155366981886044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1031632757433258</v>
+        <v>0.1033787221543651</v>
       </c>
     </row>
     <row r="17">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8567</v>
+        <v>11222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01006174490730416</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04875742256643633</v>
+        <v>0.06386825537636716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9940</v>
+        <v>10463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006541179224030844</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03677899603959479</v>
+        <v>0.03871454134854981</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>147216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132522</v>
+        <v>132254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161856</v>
+        <v>161080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6665934079347885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6000572538325557</v>
+        <v>0.5988414905878584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7328812377947359</v>
+        <v>0.7293667602164483</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>116</v>
@@ -1818,19 +1818,19 @@
         <v>114364</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104139</v>
+        <v>104619</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121379</v>
+        <v>121706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8403855316888595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7652460382658935</v>
+        <v>0.768778312241717</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8919387625628483</v>
+        <v>0.8943414546723253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>264</v>
@@ -1839,19 +1839,19 @@
         <v>261580</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>243828</v>
+        <v>243763</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>277729</v>
+        <v>277846</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7328535755030939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6831165074711739</v>
+        <v>0.6829344854294562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7780975786688683</v>
+        <v>0.7784252989563762</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>41784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30297</v>
+        <v>30871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54841</v>
+        <v>55206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1891950703311967</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1371831855742576</v>
+        <v>0.1397852611436013</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2483192588826519</v>
+        <v>0.2499722682759365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1889,19 +1889,19 @@
         <v>11658</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6185</v>
+        <v>5997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19916</v>
+        <v>19683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08566708672143587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0454496724863831</v>
+        <v>0.04406898196887388</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1463525314832685</v>
+        <v>0.1446406786796208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -1910,19 +1910,19 @@
         <v>53442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41954</v>
+        <v>41351</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70962</v>
+        <v>69067</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1497238826052291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1175409266823136</v>
+        <v>0.1158493586933169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1988089107726276</v>
+        <v>0.1934997891192994</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>18925</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11197</v>
+        <v>11286</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29266</v>
+        <v>29371</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08569255073956296</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05070161270337236</v>
+        <v>0.05110322340548563</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1325139568204135</v>
+        <v>0.1329916709975678</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1960,19 +1960,19 @@
         <v>7941</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3676</v>
+        <v>3832</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14772</v>
+        <v>14323</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05835587862359087</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02701030093313051</v>
+        <v>0.02815917983615687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1085477364803735</v>
+        <v>0.1052525762722117</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -1981,19 +1981,19 @@
         <v>26866</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18032</v>
+        <v>18195</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37945</v>
+        <v>37984</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07527014242762298</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05051849571732719</v>
+        <v>0.05097641801113242</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1063082224665242</v>
+        <v>0.1064165589671851</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>12924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6353</v>
+        <v>6629</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21774</v>
+        <v>22450</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05851897099445186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02876670999187003</v>
+        <v>0.03001641293776675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09859165656401858</v>
+        <v>0.1016536851538458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6695</v>
+        <v>7844</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01559150296611366</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04919555054029192</v>
+        <v>0.05763725725057175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2052,19 +2052,19 @@
         <v>15046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8082</v>
+        <v>8293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25116</v>
+        <v>25374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.042152399464054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02264243371425146</v>
+        <v>0.02323270611983509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07036492245868815</v>
+        <v>0.07108746400202094</v>
       </c>
     </row>
     <row r="23">
@@ -2156,19 +2156,19 @@
         <v>82345</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>73679</v>
+        <v>72777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>91117</v>
+        <v>91068</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.72851636450544</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6518490846093703</v>
+        <v>0.6438653385811757</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8061247298264155</v>
+        <v>0.8056866633085762</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>44</v>
@@ -2177,7 +2177,7 @@
         <v>46807</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41070</v>
+        <v>40063</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>49439</v>
@@ -2186,10 +2186,10 @@
         <v>0.9282271305434394</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8144693279220439</v>
+        <v>0.7944970031204328</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9804192709214539</v>
+        <v>0.9804319717132691</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -2198,19 +2198,19 @@
         <v>129152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>117781</v>
+        <v>118231</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>138571</v>
+        <v>138591</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7901264271867543</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7205649529360003</v>
+        <v>0.7233173495863674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8477543625198997</v>
+        <v>0.8478721398431712</v>
       </c>
     </row>
     <row r="25">
@@ -2227,19 +2227,19 @@
         <v>17694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10800</v>
+        <v>11130</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25423</v>
+        <v>26810</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1565379144892199</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09554459063023676</v>
+        <v>0.09846930530062939</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2249179171992371</v>
+        <v>0.2371941374306273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8554</v>
+        <v>8617</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05193790464883402</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1696365190974038</v>
+        <v>0.1708911615470656</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2269,19 +2269,19 @@
         <v>20313</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12557</v>
+        <v>13028</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30124</v>
+        <v>29762</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1242691826097074</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07682248785523413</v>
+        <v>0.07970010314264477</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1842961252942234</v>
+        <v>0.1820785405715462</v>
       </c>
     </row>
     <row r="26">
@@ -2298,19 +2298,19 @@
         <v>10198</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5959</v>
+        <v>5409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17168</v>
+        <v>18152</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09022614881029527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05272152876406531</v>
+        <v>0.04785466540600135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1518908280276808</v>
+        <v>0.1605906359900897</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2332,19 +2332,19 @@
         <v>10198</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5806</v>
+        <v>5196</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17599</v>
+        <v>17739</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06239170205524058</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03551752806731833</v>
+        <v>0.03178714467714035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1076696492913829</v>
+        <v>0.1085209715120639</v>
       </c>
     </row>
     <row r="27">
@@ -2361,19 +2361,19 @@
         <v>2794</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7586</v>
+        <v>7458</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02471957219504477</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007895576709271662</v>
+        <v>0.007886011166048423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06711344360881739</v>
+        <v>0.0659853067840341</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5086</v>
+        <v>5485</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01983496480772653</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1008681276632083</v>
+        <v>0.1087750433257257</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2403,19 +2403,19 @@
         <v>3794</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8661</v>
+        <v>8571</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02321268814829775</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005946621846866989</v>
+        <v>0.005785239060975808</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05298502992588755</v>
+        <v>0.05243534725037747</v>
       </c>
     </row>
     <row r="28">
@@ -2507,19 +2507,19 @@
         <v>119740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>109063</v>
+        <v>108068</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>130056</v>
+        <v>129535</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7723044610045934</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7034424941162312</v>
+        <v>0.6970211877403824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8388451541894348</v>
+        <v>0.8354829806231908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>73</v>
@@ -2528,19 +2528,19 @@
         <v>76100</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>70166</v>
+        <v>69318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79198</v>
+        <v>79071</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9386328767696177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8654506620204451</v>
+        <v>0.8549831364467966</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9768517420179645</v>
+        <v>0.9752876302816231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>188</v>
@@ -2549,19 +2549,19 @@
         <v>195839</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>181636</v>
+        <v>182737</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>205613</v>
+        <v>206153</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8294162630041514</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7692635642416938</v>
+        <v>0.7739243160955763</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8708118862321209</v>
+        <v>0.8730975177463618</v>
       </c>
     </row>
     <row r="30">
@@ -2578,19 +2578,19 @@
         <v>21735</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13618</v>
+        <v>13836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31382</v>
+        <v>31765</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1401875266598069</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08783518270434044</v>
+        <v>0.08924293832281739</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2024120096344548</v>
+        <v>0.2048805464768126</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>3078</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8334</v>
+        <v>8238</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03796003002338672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01230268367432375</v>
+        <v>0.01247730789190892</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1027937915669034</v>
+        <v>0.1016068690545684</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -2620,19 +2620,19 @@
         <v>24813</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16891</v>
+        <v>16412</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35277</v>
+        <v>35751</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1050859084549072</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07153504637881268</v>
+        <v>0.06950942983161235</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1494027520411229</v>
+        <v>0.1514104307058816</v>
       </c>
     </row>
     <row r="31">
@@ -2649,19 +2649,19 @@
         <v>11536</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6628</v>
+        <v>5867</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20471</v>
+        <v>20176</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07440801216970754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04274910814317649</v>
+        <v>0.03784007709974375</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1320376732378864</v>
+        <v>0.1301348152563424</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5989</v>
+        <v>6529</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02340709320699555</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07386578297537177</v>
+        <v>0.08052772883983478</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -2691,19 +2691,19 @@
         <v>13434</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7581</v>
+        <v>7140</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22578</v>
+        <v>22463</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05689594502112832</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03210535356315843</v>
+        <v>0.0302395274319474</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09562219566513702</v>
+        <v>0.09513684733722093</v>
       </c>
     </row>
     <row r="32">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7173</v>
+        <v>6206</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01310000016589212</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04626271314651326</v>
+        <v>0.04002834880383076</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7105</v>
+        <v>7174</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008601883519813107</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03009288954916587</v>
+        <v>0.03038475798003952</v>
       </c>
     </row>
     <row r="33">
@@ -2858,19 +2858,19 @@
         <v>240778</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>222755</v>
+        <v>222243</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>256240</v>
+        <v>255348</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7219730499484045</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6679306817530001</v>
+        <v>0.6663967225526036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7683347866227741</v>
+        <v>0.7656626367721014</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>148</v>
@@ -2879,19 +2879,19 @@
         <v>158360</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>147494</v>
+        <v>148097</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>166184</v>
+        <v>166325</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8860815432728775</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8252819944745573</v>
+        <v>0.8286556712057919</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9298617923539243</v>
+        <v>0.9306518313109615</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>376</v>
@@ -2900,19 +2900,19 @@
         <v>399138</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>379429</v>
+        <v>376285</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>417384</v>
+        <v>417986</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7792323405941696</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7407554660128142</v>
+        <v>0.7346166490222052</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.814853931655693</v>
+        <v>0.8160299386228331</v>
       </c>
     </row>
     <row r="35">
@@ -2929,19 +2929,19 @@
         <v>40254</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28000</v>
+        <v>29464</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>53810</v>
+        <v>53162</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1207016181887551</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08395659017316176</v>
+        <v>0.08834681625122187</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1613489887651821</v>
+        <v>0.1594052259029586</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2950,19 +2950,19 @@
         <v>11956</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5983</v>
+        <v>6342</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19538</v>
+        <v>20970</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06689760515604466</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03347899723424129</v>
+        <v>0.0354867511415379</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1093207244662383</v>
+        <v>0.1173343365483798</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -2971,19 +2971,19 @@
         <v>52210</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38756</v>
+        <v>39476</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>66673</v>
+        <v>67180</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1019287956630054</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07566345859959454</v>
+        <v>0.07706785553642548</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1301653817584245</v>
+        <v>0.1311556275143738</v>
       </c>
     </row>
     <row r="36">
@@ -3000,19 +3000,19 @@
         <v>33737</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24389</v>
+        <v>23431</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48077</v>
+        <v>46625</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.101159087696988</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07312981186760466</v>
+        <v>0.07025872998156346</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1441600894242235</v>
+        <v>0.1398058657036268</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -3021,19 +3021,19 @@
         <v>5905</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1894</v>
+        <v>1862</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12712</v>
+        <v>12490</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0330382555955574</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01059818279814923</v>
+        <v>0.0104166012762411</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07112944891787376</v>
+        <v>0.06988647287039221</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -3042,19 +3042,19 @@
         <v>39641</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28518</v>
+        <v>28485</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52841</v>
+        <v>54250</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07739096671000734</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05567559709283137</v>
+        <v>0.05561167133082826</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1031610166897202</v>
+        <v>0.1059117696924457</v>
       </c>
     </row>
     <row r="37">
@@ -3071,19 +3071,19 @@
         <v>18731</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11331</v>
+        <v>10925</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28617</v>
+        <v>28784</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05616624416585243</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03397708671690365</v>
+        <v>0.03275955784758689</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08580826350498423</v>
+        <v>0.08630904990104608</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8894</v>
+        <v>9151</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01398259597552048</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04976515292730927</v>
+        <v>0.05120189342960911</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>19</v>
@@ -3113,19 +3113,19 @@
         <v>21230</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13099</v>
+        <v>12483</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32583</v>
+        <v>32871</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04144789703281761</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02557242738667753</v>
+        <v>0.02437119630921354</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06361163438314552</v>
+        <v>0.06417374223097674</v>
       </c>
     </row>
     <row r="38">
@@ -3217,19 +3217,19 @@
         <v>282380</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>258829</v>
+        <v>262785</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>303575</v>
+        <v>303974</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.6087459882607401</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.557977289004874</v>
+        <v>0.5665035414623175</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6544376882842322</v>
+        <v>0.6552987340403941</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>175</v>
@@ -3238,19 +3238,19 @@
         <v>183724</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>170027</v>
+        <v>167789</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>196063</v>
+        <v>195302</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7718134257538054</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.7142720865600845</v>
+        <v>0.7048696080028343</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8236495362110011</v>
+        <v>0.8204517122746462</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>448</v>
@@ -3259,19 +3259,19 @@
         <v>466104</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>440002</v>
+        <v>438901</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>489242</v>
+        <v>489619</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6640476706114256</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6268606695719876</v>
+        <v>0.6252930324366853</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6970129799805191</v>
+        <v>0.6975489779670672</v>
       </c>
     </row>
     <row r="40">
@@ -3288,19 +3288,19 @@
         <v>99838</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>83466</v>
+        <v>82559</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>118850</v>
+        <v>119058</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2152278963387886</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1799345408306088</v>
+        <v>0.177977885067304</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2562139156733943</v>
+        <v>0.2566626309498505</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>29</v>
@@ -3309,19 +3309,19 @@
         <v>29302</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20053</v>
+        <v>20109</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>40924</v>
+        <v>40265</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1230962848376653</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08423967271353751</v>
+        <v>0.08447857039165999</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1719175793561257</v>
+        <v>0.1691523117562284</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>123</v>
@@ -3330,19 +3330,19 @@
         <v>129140</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>110308</v>
+        <v>109870</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>152626</v>
+        <v>151322</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.183982951351482</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1571536794703292</v>
+        <v>0.1565298988994246</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2174424943954962</v>
+        <v>0.2155848338913222</v>
       </c>
     </row>
     <row r="41">
@@ -3359,19 +3359,19 @@
         <v>63317</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>49179</v>
+        <v>48479</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>78756</v>
+        <v>78388</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1364960896325537</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1060195614108033</v>
+        <v>0.104509100357433</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1697794931704834</v>
+        <v>0.1689859935337647</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>15</v>
@@ -3380,19 +3380,19 @@
         <v>16623</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9781</v>
+        <v>9116</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26204</v>
+        <v>25318</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06983052097599189</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04109138037939455</v>
+        <v>0.03829714146473481</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1100814546677278</v>
+        <v>0.1063583006841639</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>80</v>
@@ -3401,19 +3401,19 @@
         <v>79939</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>64263</v>
+        <v>64202</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>98197</v>
+        <v>97232</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1138875409348422</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09155379273620197</v>
+        <v>0.091467550661976</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1398989322606001</v>
+        <v>0.1385249143141428</v>
       </c>
     </row>
     <row r="42">
@@ -3430,19 +3430,19 @@
         <v>18337</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11166</v>
+        <v>11693</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29198</v>
+        <v>27755</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03953002576791757</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02407085197890303</v>
+        <v>0.02520649549635606</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06294486700782036</v>
+        <v>0.05983371362370362</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -3451,19 +3451,19 @@
         <v>8393</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4099</v>
+        <v>4077</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16517</v>
+        <v>14987</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03525976843253744</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01721853610791714</v>
+        <v>0.01712928666321249</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06938780023888183</v>
+        <v>0.06295788371714921</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>27</v>
@@ -3472,19 +3472,19 @@
         <v>26730</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>17929</v>
+        <v>17695</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>37792</v>
+        <v>38542</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03808183710225022</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02554263335068135</v>
+        <v>0.02521034123941789</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05384110735756883</v>
+        <v>0.05491034236399005</v>
       </c>
     </row>
     <row r="43">
@@ -3576,19 +3576,19 @@
         <v>1294663</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1251036</v>
+        <v>1253429</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1336746</v>
+        <v>1335984</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6821639734016964</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6591767289643963</v>
+        <v>0.660437630221733</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7043377339383474</v>
+        <v>0.7039365099214628</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>827</v>
@@ -3597,19 +3597,19 @@
         <v>864167</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>838233</v>
+        <v>839348</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>884585</v>
+        <v>884422</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8466024851142221</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8211955966506009</v>
+        <v>0.8222876697492165</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8666050771469627</v>
+        <v>0.8664459262504839</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2068</v>
@@ -3618,19 +3618,19 @@
         <v>2158830</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2110084</v>
+        <v>2111130</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2206172</v>
+        <v>2206306</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7396740167751525</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7229724877558393</v>
+        <v>0.7233309357035534</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7558948494785287</v>
+        <v>0.7559407784010737</v>
       </c>
     </row>
     <row r="45">
@@ -3647,19 +3647,19 @@
         <v>318071</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>286830</v>
+        <v>286435</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>356892</v>
+        <v>352192</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1675931991034468</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1511320700654016</v>
+        <v>0.1509241442475922</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1880478642052952</v>
+        <v>0.185571662612256</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>94</v>
@@ -3668,19 +3668,19 @@
         <v>98245</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>81513</v>
+        <v>81044</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>121672</v>
+        <v>117151</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.09624837671489031</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.07985596084748335</v>
+        <v>0.0793963101366785</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1191985973678507</v>
+        <v>0.1147695152845639</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>394</v>
@@ -3689,19 +3689,19 @@
         <v>416316</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>381267</v>
+        <v>379599</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>458760</v>
+        <v>456418</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.142641356695566</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1306323542737614</v>
+        <v>0.1300610585094046</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.157183826623437</v>
+        <v>0.1563813466339296</v>
       </c>
     </row>
     <row r="46">
@@ -3718,19 +3718,19 @@
         <v>207352</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>181710</v>
+        <v>178770</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>235356</v>
+        <v>233204</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1092547183952473</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.09574379602065525</v>
+        <v>0.09419472108618507</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1240099746479336</v>
+        <v>0.1228763814736307</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>42</v>
@@ -3739,19 +3739,19 @@
         <v>44321</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>31859</v>
+        <v>32538</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>59273</v>
+        <v>59083</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04341973838716148</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03121127770362351</v>
+        <v>0.03187650811645965</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05806802007061768</v>
+        <v>0.05788200190408468</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>246</v>
@@ -3760,19 +3760,19 @@
         <v>251672</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>222916</v>
+        <v>221421</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>283073</v>
+        <v>281929</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0862298654193539</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07637703912335936</v>
+        <v>0.07586492544282016</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09698852846799041</v>
+        <v>0.09659661522117677</v>
       </c>
     </row>
     <row r="47">
@@ -3789,19 +3789,19 @@
         <v>77790</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>60401</v>
+        <v>60365</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>97992</v>
+        <v>95575</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04098810909960945</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03182557001053801</v>
+        <v>0.031806835557221</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05163220830417471</v>
+        <v>0.05035894941055486</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -3810,19 +3810,19 @@
         <v>14014</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8428</v>
+        <v>7992</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>24456</v>
+        <v>23523</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0137293997837261</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008256866811112909</v>
+        <v>0.007829301906188711</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02395930156050871</v>
+        <v>0.02304532362007075</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>85</v>
@@ -3831,19 +3831,19 @@
         <v>91805</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>74233</v>
+        <v>74177</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>111321</v>
+        <v>112689</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03145476110992759</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02543422741908395</v>
+        <v>0.02541510825738958</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03814163940286068</v>
+        <v>0.03861037984171933</v>
       </c>
     </row>
     <row r="48">
@@ -4179,19 +4179,19 @@
         <v>61361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50278</v>
+        <v>51248</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72580</v>
+        <v>73379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4906546014128092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4020314508037319</v>
+        <v>0.4097894742650012</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5803655673207583</v>
+        <v>0.5867515043499556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -4200,19 +4200,19 @@
         <v>59778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49472</v>
+        <v>49815</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67870</v>
+        <v>67956</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6829311871605123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5651891048709616</v>
+        <v>0.5691141796773382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7753835243931555</v>
+        <v>0.7763620022229263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -4221,19 +4221,19 @@
         <v>121138</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105429</v>
+        <v>106459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135855</v>
+        <v>137382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5698218710920344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4959276840281447</v>
+        <v>0.5007693190460577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6390471535766734</v>
+        <v>0.6462301740478879</v>
       </c>
     </row>
     <row r="5">
@@ -4250,19 +4250,19 @@
         <v>30015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21576</v>
+        <v>20172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40213</v>
+        <v>39516</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2400100857631898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1725298294474313</v>
+        <v>0.1613036260885211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3215553510592853</v>
+        <v>0.3159805494804259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4271,19 +4271,19 @@
         <v>13002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7523</v>
+        <v>7144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22155</v>
+        <v>21739</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.148546313928887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08594502932360309</v>
+        <v>0.08161683562497644</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2531108286336353</v>
+        <v>0.2483583351119381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -4292,19 +4292,19 @@
         <v>43018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31087</v>
+        <v>30831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56612</v>
+        <v>54655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2023511213992885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1462294881424392</v>
+        <v>0.1450248352576846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2662946226316423</v>
+        <v>0.2570902738841489</v>
       </c>
     </row>
     <row r="6">
@@ -4321,19 +4321,19 @@
         <v>15958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9436</v>
+        <v>9741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25079</v>
+        <v>24589</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1276065089333298</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07544850423553587</v>
+        <v>0.07789067979068591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2005397364588415</v>
+        <v>0.196615389800554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4345,16 +4345,16 @@
         <v>2889</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13880</v>
+        <v>14858</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07828871943425547</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03300585327663361</v>
+        <v>0.03300879978891819</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.158577404447458</v>
+        <v>0.1697400672581428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -4363,19 +4363,19 @@
         <v>22811</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14558</v>
+        <v>15007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33657</v>
+        <v>35055</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1073005797112476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06847715461181385</v>
+        <v>0.07059197049724948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1583205597342127</v>
+        <v>0.1648967029625901</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>17724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10829</v>
+        <v>11287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26641</v>
+        <v>28781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1417288038906713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08658828360665125</v>
+        <v>0.09025365928858119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2130314022020997</v>
+        <v>0.2301363178083125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4413,19 +4413,19 @@
         <v>7898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3377</v>
+        <v>3390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14863</v>
+        <v>15748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0902337794763452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03858573608640124</v>
+        <v>0.0387285403475959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1697980720589316</v>
+        <v>0.1799184565801605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4434,19 +4434,19 @@
         <v>25623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17059</v>
+        <v>16610</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37292</v>
+        <v>38146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1205264277974296</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08024250245473502</v>
+        <v>0.07813119336886436</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1754189626172254</v>
+        <v>0.1794360737992045</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>111876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>98250</v>
+        <v>96795</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125139</v>
+        <v>124255</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6495374117904189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5704226630497254</v>
+        <v>0.5619747940357603</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.726538548787774</v>
+        <v>0.7214080549051858</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -4559,19 +4559,19 @@
         <v>105391</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95745</v>
+        <v>97083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>112320</v>
+        <v>112552</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8740735030500356</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7940742070101817</v>
+        <v>0.8051702070820744</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9315465911904609</v>
+        <v>0.9334678886535177</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>204</v>
@@ -4580,19 +4580,19 @@
         <v>217266</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200012</v>
+        <v>200032</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>231779</v>
+        <v>232794</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7419960193397691</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6830703545610419</v>
+        <v>0.6831373943231474</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7915597746747788</v>
+        <v>0.7950267319374356</v>
       </c>
     </row>
     <row r="10">
@@ -4609,19 +4609,19 @@
         <v>30982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21421</v>
+        <v>22102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42969</v>
+        <v>44696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1798785681288492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1243652016148135</v>
+        <v>0.1283224667617819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2494739815759437</v>
+        <v>0.2595002614749032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4630,19 +4630,19 @@
         <v>12116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5994</v>
+        <v>5688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21132</v>
+        <v>19922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004873188348409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04971329189588344</v>
+        <v>0.04717161883863964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1752635154139905</v>
+        <v>0.1652244689021334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -4651,19 +4651,19 @@
         <v>43098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32132</v>
+        <v>32322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58769</v>
+        <v>58971</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.147187145025558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1097351418232162</v>
+        <v>0.110385981404178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2007047304846242</v>
+        <v>0.2013947409968093</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>18400</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10132</v>
+        <v>10500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30176</v>
+        <v>30726</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1068262740317982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05882217101579783</v>
+        <v>0.06095888717539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1752001285277059</v>
+        <v>0.1783901360114531</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5020</v>
+        <v>5036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008273983418040348</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04163671153238692</v>
+        <v>0.04176574597814187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -4722,19 +4722,19 @@
         <v>19397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11085</v>
+        <v>11787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31224</v>
+        <v>30948</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06624479107362508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.037857448700645</v>
+        <v>0.04025344478001087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1066354772727776</v>
+        <v>0.1056923452024555</v>
       </c>
     </row>
     <row r="12">
@@ -4751,19 +4751,19 @@
         <v>10982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5732</v>
+        <v>5117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20653</v>
+        <v>19934</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06375774604893371</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03327698393850829</v>
+        <v>0.02970977286023949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1199108955556002</v>
+        <v>0.1157328626279964</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7120</v>
+        <v>7362</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01716519469708318</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05904854909700018</v>
+        <v>0.061062028896309</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -4793,19 +4793,19 @@
         <v>13051</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6824</v>
+        <v>7476</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22458</v>
+        <v>23281</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04457204456104789</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02330513058529289</v>
+        <v>0.0255299781955643</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07669861172213084</v>
+        <v>0.07950954924392169</v>
       </c>
     </row>
     <row r="13">
@@ -4897,19 +4897,19 @@
         <v>79587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67816</v>
+        <v>68467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91701</v>
+        <v>91162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5557721340992166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4735721487728907</v>
+        <v>0.4781192579854077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6403627151281144</v>
+        <v>0.6365984481057148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -4918,19 +4918,19 @@
         <v>67319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59920</v>
+        <v>59624</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73523</v>
+        <v>73389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8173189173815043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7274822026078386</v>
+        <v>0.723894320960155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.892640551275161</v>
+        <v>0.8910051790683008</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -4939,19 +4939,19 @@
         <v>146907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132059</v>
+        <v>132497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160280</v>
+        <v>161549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6512765824747558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.585454715110726</v>
+        <v>0.5873932510310376</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7105649681309297</v>
+        <v>0.7161904181443437</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>41562</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30873</v>
+        <v>31357</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52172</v>
+        <v>52449</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2902351002463778</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2155906083186817</v>
+        <v>0.218975228757396</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3643274488060551</v>
+        <v>0.3662630857772665</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -4989,19 +4989,19 @@
         <v>11979</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6884</v>
+        <v>6720</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19898</v>
+        <v>19362</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1454398948871583</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08358071024617887</v>
+        <v>0.08158519506377861</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.241578465104172</v>
+        <v>0.2350694169193476</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>54</v>
@@ -5010,19 +5010,19 @@
         <v>53541</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39784</v>
+        <v>40889</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66057</v>
+        <v>67293</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2373627764436799</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1763750663995125</v>
+        <v>0.1812704264717914</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2928480809751962</v>
+        <v>0.2983271577812135</v>
       </c>
     </row>
     <row r="16">
@@ -5039,19 +5039,19 @@
         <v>16205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10059</v>
+        <v>9572</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26761</v>
+        <v>25184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1131618031466442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07024131071053924</v>
+        <v>0.06684535149266352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1868772454247188</v>
+        <v>0.1758642816615495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6932</v>
+        <v>6117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0243105806772411</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08415682456785324</v>
+        <v>0.07426039175848467</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5081,19 +5081,19 @@
         <v>18207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11643</v>
+        <v>11386</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28574</v>
+        <v>27094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08071756168841891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05161468534886485</v>
+        <v>0.05047832628487671</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1266750201024164</v>
+        <v>0.1201130516009187</v>
       </c>
     </row>
     <row r="17">
@@ -5110,19 +5110,19 @@
         <v>5847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2727</v>
+        <v>1969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12147</v>
+        <v>12146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04083096250776148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01903982826384423</v>
+        <v>0.01375047171942217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08482700116574864</v>
+        <v>0.08481794978558638</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5342</v>
+        <v>5758</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01293060705409625</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0648525684282991</v>
+        <v>0.06990346805415901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -5152,19 +5152,19 @@
         <v>6912</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2991</v>
+        <v>2972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13355</v>
+        <v>13140</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03064307939314542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01326063261465157</v>
+        <v>0.01317507826993525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05920595136776572</v>
+        <v>0.05825300684172744</v>
       </c>
     </row>
     <row r="18">
@@ -5256,19 +5256,19 @@
         <v>69134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56998</v>
+        <v>55122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82167</v>
+        <v>81495</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4881422982535394</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4024498028169129</v>
+        <v>0.3892080515193247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5801626329024703</v>
+        <v>0.5754181627985584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -5277,19 +5277,19 @@
         <v>71823</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62315</v>
+        <v>61679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81896</v>
+        <v>81272</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7010649127337366</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6082619818833904</v>
+        <v>0.6020480468409531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7993892079679663</v>
+        <v>0.7932958581325509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -5298,19 +5298,19 @@
         <v>140956</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125159</v>
+        <v>125778</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157406</v>
+        <v>157219</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5775142584273774</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5127926568560354</v>
+        <v>0.5153283962865813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6449099920797023</v>
+        <v>0.644144624967656</v>
       </c>
     </row>
     <row r="20">
@@ -5327,19 +5327,19 @@
         <v>29550</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19655</v>
+        <v>20034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39682</v>
+        <v>40565</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2086487103729772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1387789352381732</v>
+        <v>0.1414552466689446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2801868218340512</v>
+        <v>0.2864236576593668</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5348,19 +5348,19 @@
         <v>19002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11918</v>
+        <v>12369</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27666</v>
+        <v>27750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1854816689595391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1163280271594213</v>
+        <v>0.1207389076732291</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2700536110480813</v>
+        <v>0.2708738692226356</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -5369,19 +5369,19 @@
         <v>48552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36851</v>
+        <v>36789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63172</v>
+        <v>61939</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1989245957804429</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1509827729795654</v>
+        <v>0.1507272311687269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2588226287599464</v>
+        <v>0.2537712427885119</v>
       </c>
     </row>
     <row r="21">
@@ -5398,19 +5398,19 @@
         <v>26620</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17569</v>
+        <v>18223</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37812</v>
+        <v>39652</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1879606091033648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1240503512687479</v>
+        <v>0.1286708689668455</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.266985841850148</v>
+        <v>0.2799750000675577</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -5419,19 +5419,19 @@
         <v>8795</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4320</v>
+        <v>4073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16505</v>
+        <v>16289</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08585163023181908</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04217233949626973</v>
+        <v>0.03976066747956068</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1611056070427956</v>
+        <v>0.1589957281249372</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -5440,19 +5440,19 @@
         <v>35415</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25631</v>
+        <v>25084</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48993</v>
+        <v>47826</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1451014716868093</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1050127374833243</v>
+        <v>0.1027710225195363</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2007315329130572</v>
+        <v>0.1959508008789126</v>
       </c>
     </row>
     <row r="22">
@@ -5469,19 +5469,19 @@
         <v>16322</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9198</v>
+        <v>9698</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26090</v>
+        <v>25786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1152483822701185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0649486537413993</v>
+        <v>0.06847885453723562</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1842176817472247</v>
+        <v>0.1820691758435895</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -5490,19 +5490,19 @@
         <v>2828</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7578</v>
+        <v>7856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02760178807490522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008569616656312059</v>
+        <v>0.008613467857199644</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07396874115782613</v>
+        <v>0.07668694523100612</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -5511,19 +5511,19 @@
         <v>19150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11092</v>
+        <v>11514</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30027</v>
+        <v>30097</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07845967410537043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04544438513053513</v>
+        <v>0.04717341208786854</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1230249985006595</v>
+        <v>0.1233107557627429</v>
       </c>
     </row>
     <row r="23">
@@ -5615,19 +5615,19 @@
         <v>53940</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44431</v>
+        <v>44239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62074</v>
+        <v>62288</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6552922636236026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5397722978651454</v>
+        <v>0.5374469390091482</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7541116601047286</v>
+        <v>0.7567145767125392</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -5636,19 +5636,19 @@
         <v>44199</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38121</v>
+        <v>37425</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49234</v>
+        <v>48896</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8073993401574526</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6963628981776597</v>
+        <v>0.6836440755891003</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8993716957486645</v>
+        <v>0.8931984986135637</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -5657,19 +5657,19 @@
         <v>98139</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>85999</v>
+        <v>86324</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108589</v>
+        <v>108760</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7160466873579932</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6274720570338423</v>
+        <v>0.6298394706059538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7922904104946303</v>
+        <v>0.7935379756213732</v>
       </c>
     </row>
     <row r="25">
@@ -5686,19 +5686,19 @@
         <v>11549</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6366</v>
+        <v>6837</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19359</v>
+        <v>18759</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1403052874530224</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07733482380315551</v>
+        <v>0.08305439141325639</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2351812774739044</v>
+        <v>0.2278897548573136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -5707,19 +5707,19 @@
         <v>6829</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3002</v>
+        <v>2933</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12648</v>
+        <v>13189</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1247390140735379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05483222196519816</v>
+        <v>0.05358436275008321</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2310427674959185</v>
+        <v>0.2409310181234496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -5728,19 +5728,19 @@
         <v>18378</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11625</v>
+        <v>11854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27943</v>
+        <v>27855</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1340878254491945</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08481727157410643</v>
+        <v>0.08648698396898236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2038783005451843</v>
+        <v>0.2032365501334548</v>
       </c>
     </row>
     <row r="26">
@@ -5757,19 +5757,19 @@
         <v>8557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3919</v>
+        <v>4482</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15341</v>
+        <v>16223</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1039567668957034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04761533871980477</v>
+        <v>0.05444554350597879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1863708115770983</v>
+        <v>0.1970879032091115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8777</v>
+        <v>8504</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04963507002758796</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1603325676295874</v>
+        <v>0.1553488082625951</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -5799,19 +5799,19 @@
         <v>11274</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5618</v>
+        <v>5723</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19309</v>
+        <v>19593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08225966072088219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04098874909062617</v>
+        <v>0.04175562710393164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1408817641537582</v>
+        <v>0.1429541602495004</v>
       </c>
     </row>
     <row r="27">
@@ -5828,19 +5828,19 @@
         <v>8268</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3864</v>
+        <v>3545</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16539</v>
+        <v>15508</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1004456820276715</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04694233217565672</v>
+        <v>0.04306619326793682</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2009254183809488</v>
+        <v>0.188399137145353</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5414</v>
+        <v>4967</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01822657574142155</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09890533710713392</v>
+        <v>0.09073313717400175</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -5870,19 +5870,19 @@
         <v>9266</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4178</v>
+        <v>4238</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17731</v>
+        <v>17432</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06760582647193017</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03048581691206632</v>
+        <v>0.03091830839766337</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1293730784507915</v>
+        <v>0.1271852328943371</v>
       </c>
     </row>
     <row r="28">
@@ -5974,19 +5974,19 @@
         <v>64120</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53160</v>
+        <v>52406</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>75360</v>
+        <v>75643</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5421700553088559</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4494928119400425</v>
+        <v>0.4431178616382606</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6372035763608525</v>
+        <v>0.6396030016796557</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -5995,19 +5995,19 @@
         <v>43337</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36285</v>
+        <v>35605</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48924</v>
+        <v>48899</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7837781289502097</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6562418913888213</v>
+        <v>0.6439478387071559</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8848272355394242</v>
+        <v>0.8843833531259672</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>101</v>
@@ -6016,19 +6016,19 @@
         <v>107457</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>93247</v>
+        <v>93173</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>120224</v>
+        <v>120583</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6191415721579022</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.53726874600064</v>
+        <v>0.536839657042579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6927031509099483</v>
+        <v>0.6947689334727104</v>
       </c>
     </row>
     <row r="30">
@@ -6045,19 +6045,19 @@
         <v>37697</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27318</v>
+        <v>27821</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49134</v>
+        <v>49256</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3187438615657188</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2309879003699698</v>
+        <v>0.2352442137228595</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4154510701630889</v>
+        <v>0.4164838224284287</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -6066,19 +6066,19 @@
         <v>9904</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5078</v>
+        <v>5042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17299</v>
+        <v>17459</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1791220413285236</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09183205563318769</v>
+        <v>0.09118431971592403</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3128586134326352</v>
+        <v>0.3157511445411349</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>42</v>
@@ -6087,19 +6087,19 @@
         <v>47601</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35226</v>
+        <v>35678</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>59892</v>
+        <v>61446</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2742631323959037</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2029621315526484</v>
+        <v>0.2055671778890602</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3450841242499741</v>
+        <v>0.3540366034205474</v>
       </c>
     </row>
     <row r="31">
@@ -6116,19 +6116,19 @@
         <v>13272</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7696</v>
+        <v>7496</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21653</v>
+        <v>21923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1122209236802017</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0650721125345622</v>
+        <v>0.06337990590718098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1830835689993549</v>
+        <v>0.1853731241118758</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6253</v>
+        <v>7139</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03709982972126667</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.113098933808908</v>
+        <v>0.129114267137611</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -6158,19 +6158,19 @@
         <v>15323</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9414</v>
+        <v>9060</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25977</v>
+        <v>24729</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08828884035933503</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05423930816716228</v>
+        <v>0.05220335896393707</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1496736548679956</v>
+        <v>0.1424847419928118</v>
       </c>
     </row>
     <row r="32">
@@ -6187,19 +6187,19 @@
         <v>3177</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10498</v>
+        <v>8717</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02686515944522365</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008201662995899715</v>
+        <v>0.008008485763092215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08876425948542369</v>
+        <v>0.07370641682563529</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -6221,19 +6221,19 @@
         <v>3177</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8565</v>
+        <v>9338</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01830645508685897</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005540462900301598</v>
+        <v>0.005506286571086132</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04934879143050024</v>
+        <v>0.05380619344458436</v>
       </c>
     </row>
     <row r="33">
@@ -6325,19 +6325,19 @@
         <v>176047</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>159288</v>
+        <v>158812</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>192430</v>
+        <v>191768</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6544973341304979</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5921918023402395</v>
+        <v>0.5904246238838153</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7154057378542752</v>
+        <v>0.7129461084160034</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>138</v>
@@ -6346,19 +6346,19 @@
         <v>146919</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>134259</v>
+        <v>134866</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156898</v>
+        <v>156261</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8065160174157948</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7370180443440025</v>
+        <v>0.7403499941449837</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8612936617189487</v>
+        <v>0.857801705733373</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>299</v>
@@ -6367,19 +6367,19 @@
         <v>322966</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>303175</v>
+        <v>303091</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>343198</v>
+        <v>342521</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7158800983053473</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6720121219242086</v>
+        <v>0.6718269497241781</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7607265635253665</v>
+        <v>0.7592256605433949</v>
       </c>
     </row>
     <row r="35">
@@ -6396,19 +6396,19 @@
         <v>59942</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46949</v>
+        <v>47151</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>74404</v>
+        <v>75348</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2228495059083782</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1745449393826909</v>
+        <v>0.1752953709170669</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2766145730916716</v>
+        <v>0.2801255917477005</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -6417,19 +6417,19 @@
         <v>21177</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13776</v>
+        <v>13201</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32862</v>
+        <v>32083</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1162542065311493</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07562508216573305</v>
+        <v>0.07246936124653595</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1803978366621403</v>
+        <v>0.1761231570380582</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>77</v>
@@ -6438,19 +6438,19 @@
         <v>81119</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>63862</v>
+        <v>65639</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>98446</v>
+        <v>99110</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1798079929678911</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1415548398604831</v>
+        <v>0.1454931825358858</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2182147595871519</v>
+        <v>0.2196848853925352</v>
       </c>
     </row>
     <row r="36">
@@ -6467,19 +6467,19 @@
         <v>23569</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15116</v>
+        <v>15295</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35572</v>
+        <v>34992</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08762296093176936</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05619740082630295</v>
+        <v>0.05686181536306167</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1322490710560047</v>
+        <v>0.1300904442176843</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -6488,19 +6488,19 @@
         <v>6099</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2149</v>
+        <v>2082</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13900</v>
+        <v>15174</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03347993358468639</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01179525406658069</v>
+        <v>0.01142697499511638</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07630227498685845</v>
+        <v>0.08329859424088011</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -6509,19 +6509,19 @@
         <v>29668</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19787</v>
+        <v>19549</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42724</v>
+        <v>40545</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0657608541989987</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04386012169632404</v>
+        <v>0.04333144440484236</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09470205315957696</v>
+        <v>0.0898720106865597</v>
       </c>
     </row>
     <row r="37">
@@ -6538,19 +6538,19 @@
         <v>9422</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5100</v>
+        <v>4796</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17380</v>
+        <v>16381</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03503019902935455</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01896052857826458</v>
+        <v>0.01782931518781725</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06461345600082764</v>
+        <v>0.06090009014320159</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -6559,19 +6559,19 @@
         <v>7970</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3865</v>
+        <v>3820</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14829</v>
+        <v>14313</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04374984246836956</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02121756525409171</v>
+        <v>0.02097062434548289</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08140230758960211</v>
+        <v>0.07856923410846621</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>18</v>
@@ -6580,19 +6580,19 @@
         <v>17392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10377</v>
+        <v>10718</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27167</v>
+        <v>26913</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03855105452776288</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02300145214963914</v>
+        <v>0.02375790788746292</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06021711430196976</v>
+        <v>0.05965438233636843</v>
       </c>
     </row>
     <row r="38">
@@ -6684,19 +6684,19 @@
         <v>201755</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>182577</v>
+        <v>181662</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>220801</v>
+        <v>220228</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5600698142397001</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.506830870300322</v>
+        <v>0.504290413342892</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6129406523277914</v>
+        <v>0.6113505512885898</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>177</v>
@@ -6705,19 +6705,19 @@
         <v>195622</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>179842</v>
+        <v>179551</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>208977</v>
+        <v>208948</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.756442192705345</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6954249304579483</v>
+        <v>0.6942993703606529</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8080842138388519</v>
+        <v>0.8079727734988619</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>363</v>
@@ -6726,19 +6726,19 @@
         <v>397378</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>372327</v>
+        <v>372669</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>421516</v>
+        <v>420986</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6421321549007499</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6016518051196615</v>
+        <v>0.6022042614582109</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6811371805413583</v>
+        <v>0.6802806476777106</v>
       </c>
     </row>
     <row r="40">
@@ -6755,19 +6755,19 @@
         <v>86814</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>70135</v>
+        <v>71400</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>105131</v>
+        <v>104601</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.240994057440861</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1946930371903722</v>
+        <v>0.1982052609499846</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2918422648563052</v>
+        <v>0.2903719091856241</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>32</v>
@@ -6776,19 +6776,19 @@
         <v>35945</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>24999</v>
+        <v>24676</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>49440</v>
+        <v>49062</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1389935833788831</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0966670424175739</v>
+        <v>0.09541815730310114</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1911770378551507</v>
+        <v>0.1897175674190192</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>115</v>
@@ -6797,19 +6797,19 @@
         <v>122759</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>103769</v>
+        <v>104322</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>143060</v>
+        <v>143668</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1983689300402322</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1676829499477651</v>
+        <v>0.1685763587590654</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2311732909350793</v>
+        <v>0.232155884832231</v>
       </c>
     </row>
     <row r="41">
@@ -6826,19 +6826,19 @@
         <v>44123</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>32410</v>
+        <v>32469</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>58388</v>
+        <v>57516</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.122484711657096</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08996987039777155</v>
+        <v>0.09013419102451509</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1620857343172975</v>
+        <v>0.1596645409476368</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>19</v>
@@ -6847,19 +6847,19 @@
         <v>19897</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>12743</v>
+        <v>12776</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>30907</v>
+        <v>30515</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07693815631291527</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0492763677499311</v>
+        <v>0.0494031855152191</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1195147780867728</v>
+        <v>0.1179985397089845</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>61</v>
@@ -6868,19 +6868,19 @@
         <v>64020</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>49031</v>
+        <v>48984</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>80272</v>
+        <v>80125</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1034511949792633</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07922992202727731</v>
+        <v>0.07915503788321809</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1297137793515518</v>
+        <v>0.1294754646404898</v>
       </c>
     </row>
     <row r="42">
@@ -6897,19 +6897,19 @@
         <v>27540</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17424</v>
+        <v>18121</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>39717</v>
+        <v>40024</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07645141666234287</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04837005366300652</v>
+        <v>0.0503024379179261</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1102531013528667</v>
+        <v>0.111106110175572</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>6</v>
@@ -6918,19 +6918,19 @@
         <v>7144</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2912</v>
+        <v>2899</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15168</v>
+        <v>15995</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02762606760285668</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01126181332574931</v>
+        <v>0.0112099894017431</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05865297358741459</v>
+        <v>0.06184975608962873</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>30</v>
@@ -6939,19 +6939,19 @@
         <v>34685</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>22757</v>
+        <v>24230</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>48088</v>
+        <v>49224</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05604772007975452</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03677365279618743</v>
+        <v>0.03915401126341351</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07770600058101794</v>
+        <v>0.07954187872953355</v>
       </c>
     </row>
     <row r="43">
@@ -7043,19 +7043,19 @@
         <v>817820</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>781139</v>
+        <v>779142</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>855710</v>
+        <v>853512</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5792259402452692</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5532465650161104</v>
+        <v>0.5518325780863512</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6060618795632157</v>
+        <v>0.6045053243847108</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>677</v>
@@ -7064,19 +7064,19 @@
         <v>734387</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>708038</v>
+        <v>708398</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>760705</v>
+        <v>760736</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7781776981669671</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7502576896212807</v>
+        <v>0.7506383582225181</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8060650675893338</v>
+        <v>0.8060975911998107</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1449</v>
@@ -7085,19 +7085,19 @@
         <v>1552207</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1502176</v>
+        <v>1499981</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1597102</v>
+        <v>1596789</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6589307208693514</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6376921649137423</v>
+        <v>0.6367602944711374</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6779893616610488</v>
+        <v>0.6778563164463652</v>
       </c>
     </row>
     <row r="45">
@@ -7114,19 +7114,19 @@
         <v>328111</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>296291</v>
+        <v>292996</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>362876</v>
+        <v>361687</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2323868984207391</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2098497336887782</v>
+        <v>0.2075164809046039</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2570095697982635</v>
+        <v>0.2561668088415183</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>121</v>
@@ -7135,19 +7135,19 @@
         <v>129955</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>108303</v>
+        <v>110677</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>152840</v>
+        <v>152758</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.137704014216933</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1147611296027874</v>
+        <v>0.1172767085307881</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1619535026867021</v>
+        <v>0.1618665926155299</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>429</v>
@@ -7156,19 +7156,19 @@
         <v>458066</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>422914</v>
+        <v>420561</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>500939</v>
+        <v>498066</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1944546951914019</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.179532207990019</v>
+        <v>0.178533356635416</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.212654821946939</v>
+        <v>0.2114352193036399</v>
       </c>
     </row>
     <row r="46">
@@ -7185,19 +7185,19 @@
         <v>166704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>142685</v>
+        <v>141669</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>192651</v>
+        <v>194386</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1180691173364091</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1010576676187896</v>
+        <v>0.1003377763624784</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1364464617072149</v>
+        <v>0.1376749806739304</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>45</v>
@@ -7206,19 +7206,19 @@
         <v>49412</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>36948</v>
+        <v>36274</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63711</v>
+        <v>64792</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05235856498961304</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03915141593665521</v>
+        <v>0.03843684700057747</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06751051830181692</v>
+        <v>0.06865502491095472</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>200</v>
@@ -7227,19 +7227,19 @@
         <v>216116</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>187705</v>
+        <v>190896</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>244803</v>
+        <v>249060</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09174391561816156</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07968324052467012</v>
+        <v>0.08103763302785645</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.103921758209519</v>
+        <v>0.1057291863160225</v>
       </c>
     </row>
     <row r="47">
@@ -7256,19 +7256,19 @@
         <v>99283</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>81863</v>
+        <v>80539</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>124077</v>
+        <v>121309</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07031804399758258</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0579803171931563</v>
+        <v>0.05704222126677044</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08787811476618466</v>
+        <v>0.08591758531404488</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>28</v>
@@ -7277,19 +7277,19 @@
         <v>29973</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>20475</v>
+        <v>19511</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>42521</v>
+        <v>42393</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03175972262648678</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02169582378377781</v>
+        <v>0.02067404618698909</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0450566214026303</v>
+        <v>0.04492107851551051</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>118</v>
@@ -7298,19 +7298,19 @@
         <v>129256</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>108231</v>
+        <v>107092</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>153643</v>
+        <v>156664</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0548706683210851</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04594535562205481</v>
+        <v>0.04546173736435234</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06522328323952283</v>
+        <v>0.0665056919102142</v>
       </c>
     </row>
     <row r="48">
@@ -7646,19 +7646,19 @@
         <v>64220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51686</v>
+        <v>51355</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77603</v>
+        <v>76697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4826724495311249</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3884673841444809</v>
+        <v>0.3859820971443326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5832596329023276</v>
+        <v>0.5764490585759555</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -7667,19 +7667,19 @@
         <v>71960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61891</v>
+        <v>62596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80763</v>
+        <v>80282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7191001119533202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6184813494464185</v>
+        <v>0.625525556572506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8070648389358022</v>
+        <v>0.8022618336756581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -7688,19 +7688,19 @@
         <v>136180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119646</v>
+        <v>120862</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152078</v>
+        <v>151710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5841617932985207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5132369359716908</v>
+        <v>0.5184535631271904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6523588366873643</v>
+        <v>0.6507799710083343</v>
       </c>
     </row>
     <row r="5">
@@ -7717,19 +7717,19 @@
         <v>33815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23799</v>
+        <v>23409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44671</v>
+        <v>45201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2541532159878561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1788745439296012</v>
+        <v>0.175939908716282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3357434939493986</v>
+        <v>0.3397243172204461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -7738,19 +7738,19 @@
         <v>15679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9274</v>
+        <v>9115</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23898</v>
+        <v>23577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1566841013329747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0926758578846834</v>
+        <v>0.09108377761767544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2388112739795402</v>
+        <v>0.2356091302131114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -7759,19 +7759,19 @@
         <v>49495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36801</v>
+        <v>37175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64202</v>
+        <v>63270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2123134567034775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1578648832585827</v>
+        <v>0.1594673552561633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2754027370229178</v>
+        <v>0.2714047607454175</v>
       </c>
     </row>
     <row r="6">
@@ -7788,19 +7788,19 @@
         <v>15481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9164</v>
+        <v>8860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24853</v>
+        <v>24728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1163514178133249</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06887370628913189</v>
+        <v>0.06658822495608031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.186789583013032</v>
+        <v>0.1858529548057379</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -7809,19 +7809,19 @@
         <v>3695</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>923</v>
+        <v>1030</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8706</v>
+        <v>8307</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0369215319262859</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009221367394301121</v>
+        <v>0.01029091958312373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08700162245515435</v>
+        <v>0.08301595135643546</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -7830,19 +7830,19 @@
         <v>19175</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11669</v>
+        <v>11601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30088</v>
+        <v>29893</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08225520880120239</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05005689052137269</v>
+        <v>0.04976386397282972</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1290675063586027</v>
+        <v>0.1282293483871424</v>
       </c>
     </row>
     <row r="7">
@@ -7859,19 +7859,19 @@
         <v>19535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11704</v>
+        <v>12542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28902</v>
+        <v>30015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.146822916667694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08796558964022988</v>
+        <v>0.09426137710955249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2172250347872331</v>
+        <v>0.2255873918314365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -7880,19 +7880,19 @@
         <v>8736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4135</v>
+        <v>3953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15368</v>
+        <v>15449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08729425478741915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04132299652675375</v>
+        <v>0.03950223831471419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1535765276294337</v>
+        <v>0.1543820310494293</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -7901,19 +7901,19 @@
         <v>28270</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18756</v>
+        <v>18804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40744</v>
+        <v>40134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1212695411967994</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08045826066793527</v>
+        <v>0.08066439901458615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1747778783035884</v>
+        <v>0.1721605678710806</v>
       </c>
     </row>
     <row r="8">
@@ -8005,19 +8005,19 @@
         <v>88051</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75104</v>
+        <v>75331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102249</v>
+        <v>100199</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5203535695476224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4438419143602744</v>
+        <v>0.445182292627611</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6042619809554896</v>
+        <v>0.5921469178623497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>89</v>
@@ -8026,19 +8026,19 @@
         <v>93090</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84537</v>
+        <v>83147</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100482</v>
+        <v>100132</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8188796274313476</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7436428996877654</v>
+        <v>0.7314102482768655</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8838980664830137</v>
+        <v>0.8808248649478627</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>168</v>
@@ -8047,19 +8047,19 @@
         <v>181141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>163975</v>
+        <v>164283</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>196861</v>
+        <v>197889</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6403157242428047</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5796372583552755</v>
+        <v>0.5807256197500718</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.695883657548972</v>
+        <v>0.6995195599275463</v>
       </c>
     </row>
     <row r="10">
@@ -8076,19 +8076,19 @@
         <v>43900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33069</v>
+        <v>33472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55295</v>
+        <v>56365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2594385745968613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.195425874281045</v>
+        <v>0.1978103446776101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3267776895551269</v>
+        <v>0.3330979739908393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -8097,19 +8097,19 @@
         <v>15143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8642</v>
+        <v>9879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23492</v>
+        <v>24187</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1332045831120587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07601639599593929</v>
+        <v>0.08690260384790517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2066541284990457</v>
+        <v>0.2127631452699921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -8118,19 +8118,19 @@
         <v>59043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46699</v>
+        <v>47700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74434</v>
+        <v>75392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2087116741659834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1650777622002797</v>
+        <v>0.1686150990154969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2631170958235484</v>
+        <v>0.2665023276162111</v>
       </c>
     </row>
     <row r="11">
@@ -8147,19 +8147,19 @@
         <v>27941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18593</v>
+        <v>19423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40219</v>
+        <v>38066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1651210215526253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1098799002508504</v>
+        <v>0.1147854244499623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2376811298033366</v>
+        <v>0.2249585183495323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -8171,16 +8171,16 @@
         <v>993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9121</v>
+        <v>9054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02904465335065478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008734052366589948</v>
+        <v>0.008735828673002563</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08023369674381006</v>
+        <v>0.0796452588763476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -8189,19 +8189,19 @@
         <v>31242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21805</v>
+        <v>21609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44590</v>
+        <v>44037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1104389798966118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07707792171591497</v>
+        <v>0.07638730828994894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1576197836504584</v>
+        <v>0.1556650618859921</v>
       </c>
     </row>
     <row r="12">
@@ -8218,19 +8218,19 @@
         <v>9321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4985</v>
+        <v>4109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16495</v>
+        <v>15722</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05508683430289098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02945909125978079</v>
+        <v>0.02428062095799892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09747902138112402</v>
+        <v>0.09290996963450283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7481</v>
+        <v>7079</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01887113610593898</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06580885130712034</v>
+        <v>0.06227397002159702</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -8260,19 +8260,19 @@
         <v>11467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6134</v>
+        <v>6310</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19550</v>
+        <v>19311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04053362169460014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02168392550250799</v>
+        <v>0.0223037362484753</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06910759267039288</v>
+        <v>0.06826179304268679</v>
       </c>
     </row>
     <row r="13">
@@ -8364,19 +8364,19 @@
         <v>73931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62174</v>
+        <v>63266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84471</v>
+        <v>84361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6006899849639402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5051662310476135</v>
+        <v>0.5140394048706775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6863303884574622</v>
+        <v>0.685429464890652</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -8385,19 +8385,19 @@
         <v>65948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57231</v>
+        <v>57949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72806</v>
+        <v>72441</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7913536616542544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6867530952031889</v>
+        <v>0.6953673690149039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8736388800489546</v>
+        <v>0.8692689434709675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -8406,19 +8406,19 @@
         <v>139880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126020</v>
+        <v>126076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152522</v>
+        <v>151858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6776676781730135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6105188943829361</v>
+        <v>0.6107912160835941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7389120750766879</v>
+        <v>0.7356959612821135</v>
       </c>
     </row>
     <row r="15">
@@ -8435,19 +8435,19 @@
         <v>28980</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20874</v>
+        <v>20619</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39519</v>
+        <v>39321</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2354655948539746</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1696014813288237</v>
+        <v>0.1675304486083497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3210894465268551</v>
+        <v>0.3194793434907185</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -8456,19 +8456,19 @@
         <v>12836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7162</v>
+        <v>7513</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21202</v>
+        <v>20227</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1540274634321683</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08594362068475962</v>
+        <v>0.09014980240190604</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2544148488143664</v>
+        <v>0.2427201914055649</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>43</v>
@@ -8477,19 +8477,19 @@
         <v>41817</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31437</v>
+        <v>31850</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>53219</v>
+        <v>54286</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2025861308421151</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1522984306383775</v>
+        <v>0.1543000379032151</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2578285840201164</v>
+        <v>0.2629947427272143</v>
       </c>
     </row>
     <row r="16">
@@ -8506,19 +8506,19 @@
         <v>15577</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9049</v>
+        <v>9339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24353</v>
+        <v>24860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1265612668752807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07352618474326646</v>
+        <v>0.07587566232432189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1978669698435005</v>
+        <v>0.2019849121961764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8527,19 +8527,19 @@
         <v>2653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7117</v>
+        <v>7112</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03183766138862663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01023577629881553</v>
+        <v>0.01032738773310613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08540210403087864</v>
+        <v>0.08533726528043331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8548,19 +8548,19 @@
         <v>18230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10959</v>
+        <v>11633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27136</v>
+        <v>28400</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08831798546278413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05309227578310773</v>
+        <v>0.05635604429873748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1314618255296487</v>
+        <v>0.1375883819797221</v>
       </c>
     </row>
     <row r="17">
@@ -8577,19 +8577,19 @@
         <v>4589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1785</v>
+        <v>986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10286</v>
+        <v>10234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03728315330680439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01450555331761957</v>
+        <v>0.008012298317435138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08357071879564865</v>
+        <v>0.08315341571316891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6172</v>
+        <v>6820</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02278121352495074</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0740645175378673</v>
+        <v>0.0818346078890743</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -8619,19 +8619,19 @@
         <v>6487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2685</v>
+        <v>2764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13111</v>
+        <v>12035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03142820552208721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01300686450229945</v>
+        <v>0.01339155840321633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06351823867543363</v>
+        <v>0.05830352537416462</v>
       </c>
     </row>
     <row r="18">
@@ -8723,19 +8723,19 @@
         <v>70323</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58280</v>
+        <v>58319</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80379</v>
+        <v>80566</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6268782110817728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5195198008049664</v>
+        <v>0.5198731757963599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7165169960883456</v>
+        <v>0.7181807325368713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -8744,19 +8744,19 @@
         <v>56495</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47745</v>
+        <v>47722</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64541</v>
+        <v>64770</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6901444267449564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5832637642960353</v>
+        <v>0.5829836397442213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7884392277745437</v>
+        <v>0.7912371900201328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -8765,19 +8765,19 @@
         <v>126818</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113902</v>
+        <v>113476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140701</v>
+        <v>140061</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6535681948812948</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5870037974862861</v>
+        <v>0.5848110987257036</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7251150142388255</v>
+        <v>0.7218208693420927</v>
       </c>
     </row>
     <row r="20">
@@ -8794,19 +8794,19 @@
         <v>23728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15800</v>
+        <v>15611</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33229</v>
+        <v>33792</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2115200351576167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1408451210444842</v>
+        <v>0.1391643226238418</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2962119570559809</v>
+        <v>0.301232428499262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -8815,19 +8815,19 @@
         <v>17174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10704</v>
+        <v>11154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25251</v>
+        <v>25931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2097937077438607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.130761600115551</v>
+        <v>0.1362559027329441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3084670854352827</v>
+        <v>0.3167814104303429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -8836,19 +8836,19 @@
         <v>40902</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30535</v>
+        <v>29559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52825</v>
+        <v>52637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2107917530844307</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1573649429031794</v>
+        <v>0.1523328700904038</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.272238815500118</v>
+        <v>0.2712715370263118</v>
       </c>
     </row>
     <row r="21">
@@ -8865,19 +8865,19 @@
         <v>13088</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6503</v>
+        <v>7137</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21358</v>
+        <v>22461</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1166667013428216</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05797171276631134</v>
+        <v>0.06361720863689219</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1903899252991551</v>
+        <v>0.2002256441984733</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -8886,19 +8886,19 @@
         <v>5540</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2027</v>
+        <v>2007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11804</v>
+        <v>12312</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06767145091675951</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02476356510913252</v>
+        <v>0.02452086326026097</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1442001050351927</v>
+        <v>0.1504065359840218</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -8907,19 +8907,19 @@
         <v>18627</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11472</v>
+        <v>10708</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28947</v>
+        <v>27603</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09599717928563151</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05911963020668536</v>
+        <v>0.05518444281436142</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1491795519212076</v>
+        <v>0.1422560384043119</v>
       </c>
     </row>
     <row r="22">
@@ -8936,19 +8936,19 @@
         <v>5041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11801</v>
+        <v>11327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04493505241778888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01702265414237785</v>
+        <v>0.01684578484629384</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1052008335281782</v>
+        <v>0.1009713429585566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8623</v>
+        <v>8168</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03239041459442336</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1053453307361678</v>
+        <v>0.0997774789067656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -8978,19 +8978,19 @@
         <v>7692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3388</v>
+        <v>3269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15033</v>
+        <v>15470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03964287274864304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01746216792793813</v>
+        <v>0.01684538728977232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07747634716363076</v>
+        <v>0.07972669395284213</v>
       </c>
     </row>
     <row r="23">
@@ -9082,19 +9082,19 @@
         <v>40327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30917</v>
+        <v>31549</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49432</v>
+        <v>49237</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5042542005237722</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3865929122547323</v>
+        <v>0.3944920230504378</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6181137972794285</v>
+        <v>0.6156710017469993</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -9103,19 +9103,19 @@
         <v>39978</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34016</v>
+        <v>33515</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45671</v>
+        <v>45529</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7213965687915026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6138003769300838</v>
+        <v>0.6047706111376648</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8241228143662884</v>
+        <v>0.8215569783528105</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -9124,19 +9124,19 @@
         <v>80306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69445</v>
+        <v>69469</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>91257</v>
+        <v>91356</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5931349204089815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5129165045255802</v>
+        <v>0.5130986737985372</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6740210027327151</v>
+        <v>0.6747504546805835</v>
       </c>
     </row>
     <row r="25">
@@ -9153,19 +9153,19 @@
         <v>14186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8125</v>
+        <v>7859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22206</v>
+        <v>22436</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1773854332181877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1015978704189734</v>
+        <v>0.09826865761013094</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2776744691443082</v>
+        <v>0.2805387652797276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -9174,19 +9174,19 @@
         <v>7482</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3753</v>
+        <v>3715</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13423</v>
+        <v>13144</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1350105342203799</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06772312963027156</v>
+        <v>0.0670381588743385</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2422051105957685</v>
+        <v>0.237182681244638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -9195,19 +9195,19 @@
         <v>21668</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13836</v>
+        <v>13954</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31020</v>
+        <v>31170</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1600405384469175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1021908304237004</v>
+        <v>0.1030640698897022</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2291101835786876</v>
+        <v>0.2302234365398483</v>
       </c>
     </row>
     <row r="26">
@@ -9224,19 +9224,19 @@
         <v>16846</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10573</v>
+        <v>10484</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25109</v>
+        <v>24758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2106430375691499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1322091522485665</v>
+        <v>0.1310955787671275</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3139723258977254</v>
+        <v>0.3095837795339312</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -9245,19 +9245,19 @@
         <v>6109</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11442</v>
+        <v>12167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1102370277450969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04893390834595094</v>
+        <v>0.04896163508936554</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2064708943918823</v>
+        <v>0.2195524863978801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -9266,19 +9266,19 @@
         <v>22955</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15408</v>
+        <v>15867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32220</v>
+        <v>32281</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1695448469895943</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1138062919804625</v>
+        <v>0.1171902808081477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2379763523143135</v>
+        <v>0.23842385771035</v>
       </c>
     </row>
     <row r="27">
@@ -9295,19 +9295,19 @@
         <v>8614</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4276</v>
+        <v>4282</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15907</v>
+        <v>16282</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1077173286888901</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05346693550996527</v>
+        <v>0.05353814951582275</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1989054238789525</v>
+        <v>0.2035920908270584</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5656</v>
+        <v>6361</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03335586924302062</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1020685790875338</v>
+        <v>0.1147873236968074</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>10</v>
@@ -9337,19 +9337,19 @@
         <v>10463</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5276</v>
+        <v>5406</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18624</v>
+        <v>18501</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07727969415450667</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03897080262954278</v>
+        <v>0.03993067880575147</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.137558559949465</v>
+        <v>0.1366477788587924</v>
       </c>
     </row>
     <row r="28">
@@ -9441,19 +9441,19 @@
         <v>52335</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41008</v>
+        <v>41203</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61852</v>
+        <v>61529</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4868281988114719</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3814652082561851</v>
+        <v>0.3832779853057041</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5753577112412245</v>
+        <v>0.5723517290601194</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -9462,19 +9462,19 @@
         <v>55128</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46713</v>
+        <v>48021</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62048</v>
+        <v>62278</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7295125185409146</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6181650581209194</v>
+        <v>0.6354738292548535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8210855513148574</v>
+        <v>0.8241366352806599</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>106</v>
@@ -9483,19 +9483,19 @@
         <v>107463</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>94343</v>
+        <v>94989</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>120644</v>
+        <v>120855</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5870040429736345</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5153336112368819</v>
+        <v>0.5188643115679726</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.659000256291018</v>
+        <v>0.6601539154263825</v>
       </c>
     </row>
     <row r="30">
@@ -9512,19 +9512,19 @@
         <v>33293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25204</v>
+        <v>24264</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44687</v>
+        <v>43869</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3097012015685506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2344486508461342</v>
+        <v>0.2257111069015254</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4156837507790914</v>
+        <v>0.4080799733949545</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -9533,19 +9533,19 @@
         <v>12432</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6932</v>
+        <v>6941</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19462</v>
+        <v>18966</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.164520066397163</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09172649881791933</v>
+        <v>0.09184823398784796</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2575405991163882</v>
+        <v>0.2509736482580074</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>44</v>
@@ -9554,19 +9554,19 @@
         <v>45726</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>34570</v>
+        <v>34798</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57539</v>
+        <v>58653</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.249772967274597</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1888329603720788</v>
+        <v>0.1900794084383009</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3142984783420185</v>
+        <v>0.3203830188837856</v>
       </c>
     </row>
     <row r="31">
@@ -9583,19 +9583,19 @@
         <v>20913</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13822</v>
+        <v>14032</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30666</v>
+        <v>29962</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1945350892814001</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1285732703550114</v>
+        <v>0.1305282351168953</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2852589807326654</v>
+        <v>0.2787089623703606</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -9604,19 +9604,19 @@
         <v>7048</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3100</v>
+        <v>3004</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13561</v>
+        <v>13298</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09326522534119944</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04102067344752408</v>
+        <v>0.03975039682454212</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1794551933564709</v>
+        <v>0.1759732488278823</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>28</v>
@@ -9625,19 +9625,19 @@
         <v>27961</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19096</v>
+        <v>19053</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37992</v>
+        <v>37654</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1527326600197696</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1043080711276786</v>
+        <v>0.1040746227348531</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2075260774983994</v>
+        <v>0.2056782397266907</v>
       </c>
     </row>
     <row r="32">
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4842</v>
+        <v>4832</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008935510338577313</v>
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04504563720097915</v>
+        <v>0.04494693167591647</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5880</v>
+        <v>5079</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01270218972072294</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07780533714763985</v>
+        <v>0.06720871247382605</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5836</v>
+        <v>6697</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01049032973199885</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03188015272848273</v>
+        <v>0.03657876063766467</v>
       </c>
     </row>
     <row r="33">
@@ -9800,19 +9800,19 @@
         <v>197712</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>178532</v>
+        <v>179079</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>216840</v>
+        <v>218897</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.554357714463552</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5005791026226003</v>
+        <v>0.5021136279805258</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6079888117405973</v>
+        <v>0.6137579321065856</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>200</v>
@@ -9821,19 +9821,19 @@
         <v>207796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>192663</v>
+        <v>193259</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>222810</v>
+        <v>223713</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.73467822985738</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.681173002266194</v>
+        <v>0.6832804721415767</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7877593328066036</v>
+        <v>0.7909528448674179</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>372</v>
@@ -9842,19 +9842,19 @@
         <v>405509</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>380632</v>
+        <v>378906</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>430468</v>
+        <v>429132</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6341115563111529</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5952107192196019</v>
+        <v>0.5925109916276716</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6731404802369958</v>
+        <v>0.6710516704513086</v>
       </c>
     </row>
     <row r="35">
@@ -9871,19 +9871,19 @@
         <v>105768</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>88489</v>
+        <v>88237</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>124506</v>
+        <v>124725</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2965589762327658</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2481096885676188</v>
+        <v>0.247403694698997</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.349097788404885</v>
+        <v>0.3497111638900511</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -9892,19 +9892,19 @@
         <v>49872</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36912</v>
+        <v>38191</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63316</v>
+        <v>63959</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1763252538570066</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1305061370238027</v>
+        <v>0.1350254735412678</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2238568878288603</v>
+        <v>0.2261319466214872</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>140</v>
@@ -9913,19 +9913,19 @@
         <v>155640</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>134844</v>
+        <v>134439</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>181260</v>
+        <v>179796</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.243380882447033</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2108613166519951</v>
+        <v>0.2102275284258084</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2834430202454147</v>
+        <v>0.2811546488731869</v>
       </c>
     </row>
     <row r="36">
@@ -9942,19 +9942,19 @@
         <v>46569</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34643</v>
+        <v>34214</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59823</v>
+        <v>60187</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1305717670138286</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09713514022109103</v>
+        <v>0.09592997984208201</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1677363064686671</v>
+        <v>0.1687563786274274</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -9963,19 +9963,19 @@
         <v>21424</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13207</v>
+        <v>12943</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31735</v>
+        <v>31440</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07574738336963185</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04669443961587946</v>
+        <v>0.04576023877295157</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1122029140300261</v>
+        <v>0.1111581630423622</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -9984,19 +9984,19 @@
         <v>67993</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>51587</v>
+        <v>53796</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>83526</v>
+        <v>87007</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1063235265238221</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08066921984565778</v>
+        <v>0.08412329867091373</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1306135083238122</v>
+        <v>0.1360567409450787</v>
       </c>
     </row>
     <row r="37">
@@ -10013,19 +10013,19 @@
         <v>6602</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2268</v>
+        <v>2228</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14091</v>
+        <v>14232</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01851154228985361</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006358053905915425</v>
+        <v>0.006246247289343321</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03950923598017053</v>
+        <v>0.0399048664992771</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -10034,19 +10034,19 @@
         <v>3747</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11769</v>
+        <v>10598</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01324913291598155</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003609182841707947</v>
+        <v>0.003651678360693709</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0416085344544477</v>
+        <v>0.03746961762572334</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -10055,19 +10055,19 @@
         <v>10350</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4438</v>
+        <v>4975</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18435</v>
+        <v>19321</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01618403471799199</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006939231195227723</v>
+        <v>0.007780181238415338</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02882817534620377</v>
+        <v>0.03021367267391082</v>
       </c>
     </row>
     <row r="38">
@@ -10159,19 +10159,19 @@
         <v>210438</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>192879</v>
+        <v>192454</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>226948</v>
+        <v>228710</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.6479353167416065</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5938723279684427</v>
+        <v>0.5925625715836197</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6987689817388836</v>
+        <v>0.7041957415455175</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>183</v>
@@ -10180,19 +10180,19 @@
         <v>190790</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>177011</v>
+        <v>178252</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>202077</v>
+        <v>202518</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.8043187381390534</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.7462289441110227</v>
+        <v>0.7514600629317976</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8519004688892137</v>
+        <v>0.8537622846455166</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>383</v>
@@ -10201,19 +10201,19 @@
         <v>401228</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>379791</v>
+        <v>376188</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>421442</v>
+        <v>420535</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.7139422989928865</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6757981712967996</v>
+        <v>0.6693865454945556</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.7499107371914338</v>
+        <v>0.7482978610763247</v>
       </c>
     </row>
     <row r="40">
@@ -10230,19 +10230,19 @@
         <v>79392</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>64259</v>
+        <v>64473</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>97064</v>
+        <v>96330</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2444473038594499</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.197852491909436</v>
+        <v>0.1985112701110208</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2988580875752136</v>
+        <v>0.2965999449625832</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -10251,19 +10251,19 @@
         <v>31371</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>21553</v>
+        <v>21568</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>43271</v>
+        <v>43375</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1322496758114141</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09086291876536996</v>
+        <v>0.09092340768730758</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1824201044356167</v>
+        <v>0.1828553390407755</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>107</v>
@@ -10272,19 +10272,19 @@
         <v>110763</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>93972</v>
+        <v>91727</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>131795</v>
+        <v>132056</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1970904499357812</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1672130089068836</v>
+        <v>0.1632182355022575</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2345157886013264</v>
+        <v>0.2349788818147968</v>
       </c>
     </row>
     <row r="41">
@@ -10301,19 +10301,19 @@
         <v>31021</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>22061</v>
+        <v>21180</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42895</v>
+        <v>43663</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09551483040555732</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06792499592438365</v>
+        <v>0.0652124993156705</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1320733883260278</v>
+        <v>0.1344364315049648</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -10322,19 +10322,19 @@
         <v>12986</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7796</v>
+        <v>7023</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>21226</v>
+        <v>20819</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05474443798662582</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03286684527439578</v>
+        <v>0.02960681799328592</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08948390388420208</v>
+        <v>0.0877678962874715</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -10343,19 +10343,19 @@
         <v>44007</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>32212</v>
+        <v>32864</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57471</v>
+        <v>59592</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07830628908624028</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05731815541616617</v>
+        <v>0.05847766220704543</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1022639558632894</v>
+        <v>0.1060373831515858</v>
       </c>
     </row>
     <row r="42">
@@ -10372,19 +10372,19 @@
         <v>3931</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10048</v>
+        <v>9173</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01210254899338623</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003118098074463727</v>
+        <v>0.003111002913477707</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03093699836660937</v>
+        <v>0.02824353140050568</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6265</v>
+        <v>7134</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.008687148062906597</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02641242372037573</v>
+        <v>0.03007397119051058</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -10414,19 +10414,19 @@
         <v>5991</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2838</v>
+        <v>2028</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12825</v>
+        <v>12100</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01066096198509192</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.005049835978840414</v>
+        <v>0.003608577418168673</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0228215407922396</v>
+        <v>0.02153110231307602</v>
       </c>
     </row>
     <row r="43">
@@ -10518,19 +10518,19 @@
         <v>797337</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>760401</v>
+        <v>758854</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>834411</v>
+        <v>833544</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.566922772090702</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5406603052587989</v>
+        <v>0.539560363286518</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5932828649916524</v>
+        <v>0.5926666660534197</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>760</v>
@@ -10539,19 +10539,19 @@
         <v>781187</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>752350</v>
+        <v>753146</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>806771</v>
+        <v>805726</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.758449152424634</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7304517677424794</v>
+        <v>0.7312250960584611</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7832891482783819</v>
+        <v>0.7822738678128116</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1499</v>
@@ -10560,19 +10560,19 @@
         <v>1578524</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1531539</v>
+        <v>1527272</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1625329</v>
+        <v>1625766</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6478895329100011</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6286051132139259</v>
+        <v>0.6268536597537597</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6671001469411617</v>
+        <v>0.6672795819769239</v>
       </c>
     </row>
     <row r="45">
@@ -10589,19 +10589,19 @@
         <v>363064</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>331499</v>
+        <v>330153</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>399367</v>
+        <v>400564</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2581460910823068</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2357022406331011</v>
+        <v>0.2347452210737601</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2839576480223507</v>
+        <v>0.2848092125424699</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>161</v>
@@ -10610,19 +10610,19 @@
         <v>161989</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>138492</v>
+        <v>140006</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>186475</v>
+        <v>185724</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.157273704989196</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1344611400440519</v>
+        <v>0.1359311466419801</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1810474400972079</v>
+        <v>0.1803185916650372</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>499</v>
@@ -10631,19 +10631,19 @@
         <v>525053</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>487489</v>
+        <v>485949</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>566843</v>
+        <v>565574</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2155028252103525</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2000850306039695</v>
+        <v>0.1994530207965113</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2326551358305967</v>
+        <v>0.2321341688246103</v>
       </c>
     </row>
     <row r="46">
@@ -10660,19 +10660,19 @@
         <v>187435</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>164040</v>
+        <v>161232</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>215492</v>
+        <v>214086</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1332697904329911</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.11663547075981</v>
+        <v>0.1146392273976972</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1532193815736496</v>
+        <v>0.1522196999296557</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>62</v>
@@ -10681,19 +10681,19 @@
         <v>62757</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>47934</v>
+        <v>49064</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>79126</v>
+        <v>79716</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06092988832053494</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04653871159743203</v>
+        <v>0.04763555727058832</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07682278196128575</v>
+        <v>0.07739622880557216</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>239</v>
@@ -10702,19 +10702,19 @@
         <v>250191</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>220100</v>
+        <v>220510</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>281381</v>
+        <v>281288</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1026884807365478</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09033785145722881</v>
+        <v>0.09050631846747033</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1154899042466672</v>
+        <v>0.1154516873972947</v>
       </c>
     </row>
     <row r="47">
@@ -10731,19 +10731,19 @@
         <v>58594</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>44165</v>
+        <v>45972</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>74231</v>
+        <v>75539</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04166134639400017</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03140237870206557</v>
+        <v>0.03268711574909307</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05277960784142048</v>
+        <v>0.05370984263943229</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>23</v>
@@ -10752,19 +10752,19 @@
         <v>24047</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>15101</v>
+        <v>15167</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>36187</v>
+        <v>36153</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02334725426563506</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01466170973358546</v>
+        <v>0.01472602187351577</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0351333464930337</v>
+        <v>0.03510076842678707</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>77</v>
@@ -10773,19 +10773,19 @@
         <v>82641</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>65548</v>
+        <v>65947</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>103627</v>
+        <v>101927</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03391916114309853</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02690353657290774</v>
+        <v>0.02706735261498006</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04253264352671435</v>
+        <v>0.04183493384516765</v>
       </c>
     </row>
     <row r="48">
@@ -11121,19 +11121,19 @@
         <v>74088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62723</v>
+        <v>63635</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82381</v>
+        <v>82595</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7296350163319114</v>
+        <v>0.7296350163319113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6177121663351594</v>
+        <v>0.6266969449879828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8113097273785679</v>
+        <v>0.8134128646328476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -11142,19 +11142,19 @@
         <v>63219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58750</v>
+        <v>58218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67007</v>
+        <v>66749</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8792785562629054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.817115958819858</v>
+        <v>0.8097150162883077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9319569985963774</v>
+        <v>0.9283702294041711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -11163,19 +11163,19 @@
         <v>137307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124682</v>
+        <v>125670</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147148</v>
+        <v>147050</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7916691492344186</v>
+        <v>0.7916691492344187</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.718874352615785</v>
+        <v>0.7245724486597293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8484084979963634</v>
+        <v>0.8478412544360504</v>
       </c>
     </row>
     <row r="5">
@@ -11192,19 +11192,19 @@
         <v>23882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16106</v>
+        <v>15512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35201</v>
+        <v>34545</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.235192533503556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1586111444177204</v>
+        <v>0.1527644627634583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3466669021960876</v>
+        <v>0.3402119099363339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -11213,19 +11213,19 @@
         <v>8680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4892</v>
+        <v>5150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13149</v>
+        <v>13681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1207214437370945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06804300140362265</v>
+        <v>0.07162977059582887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1828840411801419</v>
+        <v>0.1902849837116923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -11234,19 +11234,19 @@
         <v>32561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23686</v>
+        <v>23316</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44656</v>
+        <v>44418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1877389995966324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1365660986688625</v>
+        <v>0.1344326965637516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.257473896869702</v>
+        <v>0.2561003482670678</v>
       </c>
     </row>
     <row r="6">
@@ -11263,19 +11263,19 @@
         <v>2781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7525</v>
+        <v>7381</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02739081173482413</v>
+        <v>0.02739081173482414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008442024135046472</v>
+        <v>0.008712626061152792</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07411077347965978</v>
+        <v>0.072685609708739</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>2781</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7496</v>
+        <v>6713</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.016036059927635</v>
+        <v>0.01603605992763501</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005033938364936414</v>
+        <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04321735348438226</v>
+        <v>0.03870653403550649</v>
       </c>
     </row>
     <row r="7">
@@ -11329,16 +11329,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4115</v>
+        <v>3941</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.007781638429708452</v>
+        <v>0.007781638429708453</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04052562786859083</v>
+        <v>0.0388078758533314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -11363,16 +11363,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4083</v>
+        <v>4785</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.004555791241313991</v>
+        <v>0.004555791241313992</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02354288874581819</v>
+        <v>0.02758720178040457</v>
       </c>
     </row>
     <row r="8">
@@ -11464,19 +11464,19 @@
         <v>75186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61638</v>
+        <v>61709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>87674</v>
+        <v>87248</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6044643659242502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4955485968310976</v>
+        <v>0.4961182132149529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7048693439476383</v>
+        <v>0.7014367719090822</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -11485,19 +11485,19 @@
         <v>57070</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48365</v>
+        <v>49756</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63437</v>
+        <v>64137</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7044053624432698</v>
+        <v>0.7044053624432697</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5969662427033433</v>
+        <v>0.614132021105636</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7829986874060212</v>
+        <v>0.7916448861225243</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>128</v>
@@ -11506,19 +11506,19 @@
         <v>132255</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>117883</v>
+        <v>115905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>148000</v>
+        <v>146907</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6438847575990432</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5739125769206841</v>
+        <v>0.5642823729860299</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7205362615338765</v>
+        <v>0.7152185682903037</v>
       </c>
     </row>
     <row r="10">
@@ -11535,19 +11535,19 @@
         <v>35628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25254</v>
+        <v>24422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48371</v>
+        <v>49532</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2864348507490911</v>
+        <v>0.286434850749091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.203033838295646</v>
+        <v>0.1963456312695685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3888865459300456</v>
+        <v>0.3982223881145102</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -11556,19 +11556,19 @@
         <v>17710</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11931</v>
+        <v>11453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26008</v>
+        <v>24530</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2185993922991306</v>
+        <v>0.2185993922991305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.147262803901422</v>
+        <v>0.1413575528031347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3210144184004283</v>
+        <v>0.3027769082824455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -11577,19 +11577,19 @@
         <v>53338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38980</v>
+        <v>40431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67549</v>
+        <v>68908</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2596780598957231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1897759512189428</v>
+        <v>0.1968378631496352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3288610828936822</v>
+        <v>0.335480875285584</v>
       </c>
     </row>
     <row r="11">
@@ -11606,19 +11606,19 @@
         <v>12427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4779</v>
+        <v>5516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23409</v>
+        <v>24407</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09990902876020759</v>
+        <v>0.09990902876020757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03842053296070229</v>
+        <v>0.04434703854480782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1881960844027918</v>
+        <v>0.1962219930028397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -11627,19 +11627,19 @@
         <v>2905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6679</v>
+        <v>6493</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03586007714303069</v>
+        <v>0.03586007714303068</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009360267265275874</v>
+        <v>0.009094762398537759</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08244320102151595</v>
+        <v>0.08014051166018858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -11648,19 +11648,19 @@
         <v>15332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8028</v>
+        <v>7846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27806</v>
+        <v>27592</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0746457749699727</v>
+        <v>0.07464577496997271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03908287637985389</v>
+        <v>0.03819615899210608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1353735284208314</v>
+        <v>0.134329794124946</v>
       </c>
     </row>
     <row r="12">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6273</v>
+        <v>5834</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009191754566451067</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05043458080756831</v>
+        <v>0.04689964511832424</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -11698,19 +11698,19 @@
         <v>3333</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>771</v>
+        <v>1085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8191</v>
+        <v>8253</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04113516811456898</v>
+        <v>0.04113516811456897</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009521474718264358</v>
+        <v>0.0133912612582062</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.101106052700335</v>
+        <v>0.1018626074639567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -11719,19 +11719,19 @@
         <v>4476</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9581</v>
+        <v>9615</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02179140753526106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007157141977900717</v>
+        <v>0.007213944660916466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0466458308546683</v>
+        <v>0.04681119916560963</v>
       </c>
     </row>
     <row r="13">
@@ -11823,19 +11823,19 @@
         <v>29974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22203</v>
+        <v>21546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37579</v>
+        <v>37949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4477730207433044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3316790584638058</v>
+        <v>0.3218673239657289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5613722240381153</v>
+        <v>0.5669092525317894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -11844,19 +11844,19 @@
         <v>38918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32533</v>
+        <v>32138</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44507</v>
+        <v>44887</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6538481061255144</v>
+        <v>0.6538481061255146</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.546567291846877</v>
+        <v>0.5399336282171912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7477485222733692</v>
+        <v>0.7541170743700737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -11865,19 +11865,19 @@
         <v>68893</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57932</v>
+        <v>58055</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79033</v>
+        <v>78464</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5447660592489488</v>
+        <v>0.5447660592489489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4580915110123225</v>
+        <v>0.4590671266387761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6249514660134144</v>
+        <v>0.6204528799534503</v>
       </c>
     </row>
     <row r="15">
@@ -11894,19 +11894,19 @@
         <v>21390</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14521</v>
+        <v>14195</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29500</v>
+        <v>29638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3195343584981867</v>
+        <v>0.3195343584981868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2169209779889141</v>
+        <v>0.2120464352864689</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4406842072190694</v>
+        <v>0.4427420691881582</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -11915,19 +11915,19 @@
         <v>14553</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9616</v>
+        <v>9244</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21448</v>
+        <v>21170</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2444970902313599</v>
+        <v>0.24449709023136</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1615574906335153</v>
+        <v>0.1553031578323121</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3603395909847345</v>
+        <v>0.3556733655526316</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>41</v>
@@ -11936,19 +11936,19 @@
         <v>35943</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27373</v>
+        <v>26856</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46389</v>
+        <v>46134</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2842166846665155</v>
+        <v>0.2842166846665153</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2164503824325671</v>
+        <v>0.2123650660237202</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3668150473944619</v>
+        <v>0.3648052436246667</v>
       </c>
     </row>
     <row r="16">
@@ -11965,19 +11965,19 @@
         <v>12867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7086</v>
+        <v>7665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20731</v>
+        <v>20795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1922128928811294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1058502487863742</v>
+        <v>0.1145093472930424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.309691011106367</v>
+        <v>0.3106528386525403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -11986,19 +11986,19 @@
         <v>4692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2010</v>
+        <v>1955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9287</v>
+        <v>8624</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07882824996018994</v>
+        <v>0.07882824996018996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03376292537116864</v>
+        <v>0.03284398361342462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1560308277580035</v>
+        <v>0.1448939728447429</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -12007,19 +12007,19 @@
         <v>17559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10796</v>
+        <v>11144</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26041</v>
+        <v>26926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1388463201274062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08537006254690389</v>
+        <v>0.08812340664290384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2059203800764291</v>
+        <v>0.2129147923570019</v>
       </c>
     </row>
     <row r="17">
@@ -12036,19 +12036,19 @@
         <v>2710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7341</v>
+        <v>7334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04047972787737949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01217851964277706</v>
+        <v>0.01222794106750014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1096656111727836</v>
+        <v>0.1095600365754856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4712</v>
+        <v>4779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0228265536829357</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07917168481648107</v>
+        <v>0.08029044100976246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -12078,19 +12078,19 @@
         <v>4068</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1420</v>
+        <v>1527</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9176</v>
+        <v>8962</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03217093595712948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01123207833614684</v>
+        <v>0.01207624060140788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07255923922612555</v>
+        <v>0.07087048621822556</v>
       </c>
     </row>
     <row r="18">
@@ -12182,19 +12182,19 @@
         <v>88383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71988</v>
+        <v>71000</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102187</v>
+        <v>102756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6794988576727888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5534538014981466</v>
+        <v>0.5458574495871346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7856249789175186</v>
+        <v>0.7900009043550524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -12203,19 +12203,19 @@
         <v>69926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61976</v>
+        <v>61690</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76145</v>
+        <v>76371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.807961476226469</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7161045178303309</v>
+        <v>0.7128021309702967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8798161208437111</v>
+        <v>0.882433582697823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -12224,19 +12224,19 @@
         <v>158309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139668</v>
+        <v>138406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172998</v>
+        <v>174554</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7308241739681396</v>
+        <v>0.7308241739681397</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6447705766873448</v>
+        <v>0.638943347329774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7986372137753408</v>
+        <v>0.805817440705015</v>
       </c>
     </row>
     <row r="20">
@@ -12253,19 +12253,19 @@
         <v>18983</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9159</v>
+        <v>9454</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34037</v>
+        <v>33153</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.145944206103549</v>
+        <v>0.1459442061035491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07041275317816957</v>
+        <v>0.07268174547354431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2616814040604999</v>
+        <v>0.2548875213593456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -12274,19 +12274,19 @@
         <v>7468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3714</v>
+        <v>3286</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15084</v>
+        <v>14657</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08629294727235878</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04291365905505429</v>
+        <v>0.03797332433231963</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1742896883530203</v>
+        <v>0.1693559228246359</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -12295,19 +12295,19 @@
         <v>26451</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16205</v>
+        <v>15195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42500</v>
+        <v>41757</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1221114385529847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07480906689290337</v>
+        <v>0.07014748188635257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1961975340457202</v>
+        <v>0.1927670039377763</v>
       </c>
     </row>
     <row r="21">
@@ -12324,19 +12324,19 @@
         <v>12074</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3625</v>
+        <v>3735</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31748</v>
+        <v>27095</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09282369179747245</v>
+        <v>0.09282369179747246</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0278709853828924</v>
+        <v>0.02871484171356764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2440820046550976</v>
+        <v>0.2083068650739058</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -12345,19 +12345,19 @@
         <v>2880</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>741</v>
+        <v>697</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6808</v>
+        <v>6819</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03328190243653383</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008558595126850341</v>
+        <v>0.008054291859831345</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07866189378955549</v>
+        <v>0.07878742577355291</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -12366,19 +12366,19 @@
         <v>14954</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6434</v>
+        <v>6659</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32400</v>
+        <v>31062</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0690346611351064</v>
+        <v>0.06903466113510641</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02970334459028261</v>
+        <v>0.03073930909500116</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1495723893141896</v>
+        <v>0.1433971468699117</v>
       </c>
     </row>
     <row r="22">
@@ -12395,19 +12395,19 @@
         <v>10631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4037</v>
+        <v>4660</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22556</v>
+        <v>23887</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08173324442618969</v>
+        <v>0.08173324442618972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03103974597067258</v>
+        <v>0.03583028779567954</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1734119443448608</v>
+        <v>0.1836476528132164</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -12416,19 +12416,19 @@
         <v>6271</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2640</v>
+        <v>2523</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13685</v>
+        <v>13735</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07246367406463829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03050309652197125</v>
+        <v>0.02914794153946159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1581251117196528</v>
+        <v>0.1586972542479035</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -12437,19 +12437,19 @@
         <v>16903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8746</v>
+        <v>8545</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30835</v>
+        <v>30146</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07802972634376924</v>
+        <v>0.07802972634376926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04037386383205945</v>
+        <v>0.03944674621094738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1423471105148526</v>
+        <v>0.139168349294229</v>
       </c>
     </row>
     <row r="23">
@@ -12541,19 +12541,19 @@
         <v>21411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15408</v>
+        <v>15451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27649</v>
+        <v>27701</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4718891767601184</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3395815428912231</v>
+        <v>0.3405171251190579</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6093634784258757</v>
+        <v>0.6105147980456249</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -12562,19 +12562,19 @@
         <v>30511</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25633</v>
+        <v>25226</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34720</v>
+        <v>34616</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7070022985034531</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5939803596652101</v>
+        <v>0.5845531103982985</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8045483463414151</v>
+        <v>0.8021344233753841</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -12583,19 +12583,19 @@
         <v>51922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44349</v>
+        <v>44138</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>59591</v>
+        <v>60323</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5864992247514249</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5009494405468413</v>
+        <v>0.4985755449781294</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6731293604134174</v>
+        <v>0.6813894190335832</v>
       </c>
     </row>
     <row r="25">
@@ -12612,19 +12612,19 @@
         <v>21747</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15623</v>
+        <v>15926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28071</v>
+        <v>27898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.479291274804775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3443084863177762</v>
+        <v>0.3509859440723728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6186628149542724</v>
+        <v>0.6148382124992323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -12633,19 +12633,19 @@
         <v>12212</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8019</v>
+        <v>7974</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17390</v>
+        <v>17481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2829785722824226</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1858120004686583</v>
+        <v>0.1847699070701145</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4029674088110036</v>
+        <v>0.4050698249191459</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -12654,19 +12654,19 @@
         <v>33959</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26528</v>
+        <v>25655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41533</v>
+        <v>41578</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3835951771537397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2996538206015348</v>
+        <v>0.2897898811068931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4691469949454268</v>
+        <v>0.4696484798490907</v>
       </c>
     </row>
     <row r="26">
@@ -12686,16 +12686,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4519</v>
+        <v>4970</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03164479383338504</v>
+        <v>0.03164479383338503</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09960303811789155</v>
+        <v>0.1095403974773823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2246</v>
+        <v>2112</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01001912921412432</v>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05203837849383372</v>
+        <v>0.04895079060619048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -12725,19 +12725,19 @@
         <v>1868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4781</v>
+        <v>4951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02110298127320352</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004648473428122689</v>
+        <v>0.00478995096993818</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05400125384547889</v>
+        <v>0.05592268589309078</v>
       </c>
     </row>
     <row r="27">
@@ -12757,16 +12757,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3439</v>
+        <v>3971</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01717475460172167</v>
+        <v>0.01717475460172166</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07579519867440949</v>
+        <v>0.08750655685000631</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3925</v>
+        <v>4225</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.008802616821631826</v>
@@ -12800,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04433656517089778</v>
+        <v>0.04772923514960715</v>
       </c>
     </row>
     <row r="28">
@@ -12892,19 +12892,19 @@
         <v>29856</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22712</v>
+        <v>22102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37327</v>
+        <v>36991</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4282430712210559</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3257775116394139</v>
+        <v>0.3170183116512186</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.535411869211318</v>
+        <v>0.5305900363356434</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -12913,19 +12913,19 @@
         <v>29859</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23184</v>
+        <v>24292</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34877</v>
+        <v>35212</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6282829164381405</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4878437742052929</v>
+        <v>0.5111525561335531</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7338838903201178</v>
+        <v>0.7409343042729919</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -12934,19 +12934,19 @@
         <v>59714</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50681</v>
+        <v>50106</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69776</v>
+        <v>69593</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5093300467290183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4322821009887572</v>
+        <v>0.4273770909262073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5951539269041789</v>
+        <v>0.5935930339478356</v>
       </c>
     </row>
     <row r="30">
@@ -12963,19 +12963,19 @@
         <v>24547</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17817</v>
+        <v>17499</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32117</v>
+        <v>31895</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3521007830009982</v>
+        <v>0.3521007830009981</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2555588876511034</v>
+        <v>0.251003611783183</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.460680638385371</v>
+        <v>0.4574908068530413</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -12984,19 +12984,19 @@
         <v>13220</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8653</v>
+        <v>9165</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19326</v>
+        <v>19015</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2781812557317658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1820681301328622</v>
+        <v>0.192842972666591</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.406653794867708</v>
+        <v>0.400113206287515</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>47</v>
@@ -13005,19 +13005,19 @@
         <v>37768</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28561</v>
+        <v>28320</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46102</v>
+        <v>47214</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3221371980425326</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2436096177518925</v>
+        <v>0.2415550246944462</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3932219453727492</v>
+        <v>0.4027072631039936</v>
       </c>
     </row>
     <row r="31">
@@ -13034,19 +13034,19 @@
         <v>13705</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8480</v>
+        <v>8401</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20464</v>
+        <v>20732</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1965790027753009</v>
+        <v>0.196579002775301</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1216277020512377</v>
+        <v>0.1205018419944655</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2935300847292021</v>
+        <v>0.2973796200434912</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6228</v>
+        <v>5748</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03686712835189656</v>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1310408596683695</v>
+        <v>0.120956782551427</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -13076,19 +13076,19 @@
         <v>15457</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9746</v>
+        <v>9473</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23263</v>
+        <v>23009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1318391363969434</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0831275062895602</v>
+        <v>0.08079600333150529</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1984236600625262</v>
+        <v>0.1962528584594949</v>
       </c>
     </row>
     <row r="32">
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5830</v>
+        <v>5051</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02307714300264514</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08361808631698199</v>
+        <v>0.07245442494527796</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -13126,19 +13126,19 @@
         <v>2693</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>687</v>
+        <v>942</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6749</v>
+        <v>6283</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05666869947819746</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01445980093403345</v>
+        <v>0.0198175291214256</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1420081517636186</v>
+        <v>0.1322130970269289</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -13147,19 +13147,19 @@
         <v>4302</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1826</v>
+        <v>1627</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8961</v>
+        <v>9732</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03669361883150574</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01557278967586138</v>
+        <v>0.01387857639953655</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07643558390538242</v>
+        <v>0.08300806020498142</v>
       </c>
     </row>
     <row r="33">
@@ -13251,19 +13251,19 @@
         <v>136484</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>122222</v>
+        <v>121734</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>149551</v>
+        <v>148251</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7423071222548862</v>
+        <v>0.7423071222548864</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.664741347411778</v>
+        <v>0.6620880396678742</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8133758231289178</v>
+        <v>0.8063088051350442</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -13272,19 +13272,19 @@
         <v>126892</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>117345</v>
+        <v>117363</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135396</v>
+        <v>135358</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.7874013282510298</v>
+        <v>0.7874013282510297</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7281620110115161</v>
+        <v>0.7282706444456689</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8401733158812471</v>
+        <v>0.8399338989514599</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>268</v>
@@ -13293,19 +13293,19 @@
         <v>263376</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>246694</v>
+        <v>244453</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>278080</v>
+        <v>277536</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7633700865878772</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7150185701515759</v>
+        <v>0.7085233162022971</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8059898107719272</v>
+        <v>0.8044118526558141</v>
       </c>
     </row>
     <row r="35">
@@ -13322,19 +13322,19 @@
         <v>25887</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16978</v>
+        <v>17583</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37679</v>
+        <v>38961</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1407948911257727</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09233791148242917</v>
+        <v>0.09562894734154298</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2049275688089757</v>
+        <v>0.211899130394464</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -13343,19 +13343,19 @@
         <v>9715</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5143</v>
+        <v>5327</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16294</v>
+        <v>15660</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.06028260949199277</v>
+        <v>0.06028260949199279</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0319107322368082</v>
+        <v>0.03305431387849282</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1011084851956517</v>
+        <v>0.09717302171434301</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -13364,19 +13364,19 @@
         <v>35602</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>25170</v>
+        <v>25469</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>49976</v>
+        <v>49237</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1031885672320766</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07295256192995372</v>
+        <v>0.07381960885856273</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1448520143291873</v>
+        <v>0.1427098235921904</v>
       </c>
     </row>
     <row r="36">
@@ -13393,19 +13393,19 @@
         <v>14319</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7024</v>
+        <v>6850</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27199</v>
+        <v>26373</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07787851072397135</v>
+        <v>0.07787851072397137</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03819989436709009</v>
+        <v>0.03725557421394587</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1479326271417835</v>
+        <v>0.1434357938705547</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -13414,19 +13414,19 @@
         <v>10124</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5673</v>
+        <v>5733</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15890</v>
+        <v>17014</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06281974513970416</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03520427618616019</v>
+        <v>0.03557497597778789</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09859888934608388</v>
+        <v>0.1055778542553137</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -13435,19 +13435,19 @@
         <v>24443</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>15183</v>
+        <v>15692</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>37400</v>
+        <v>38151</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07084474140940761</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04400527179702894</v>
+        <v>0.04548236834483508</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1084017445992623</v>
+        <v>0.1105774674499871</v>
       </c>
     </row>
     <row r="37">
@@ -13464,19 +13464,19 @@
         <v>7174</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2681</v>
+        <v>2384</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14566</v>
+        <v>15161</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03901947589536952</v>
+        <v>0.03901947589536951</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01458155503720958</v>
+        <v>0.01296339285790221</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07922152868266011</v>
+        <v>0.0824554613890908</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -13485,19 +13485,19 @@
         <v>14423</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8777</v>
+        <v>8302</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23521</v>
+        <v>22853</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08949631711727329</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05446340061336703</v>
+        <v>0.05151383811019826</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.145954622758689</v>
+        <v>0.1418111512180369</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -13506,19 +13506,19 @@
         <v>21597</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13643</v>
+        <v>13448</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31452</v>
+        <v>31730</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06259660477063855</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03954372901094887</v>
+        <v>0.03897883363890439</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09116207990654603</v>
+        <v>0.09196722640385985</v>
       </c>
     </row>
     <row r="38">
@@ -13610,19 +13610,19 @@
         <v>116626</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>101118</v>
+        <v>99543</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>134340</v>
+        <v>132285</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4754016279536705</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4121861323808237</v>
+        <v>0.4057674382866683</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5476084579411699</v>
+        <v>0.5392330956926761</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>112</v>
@@ -13631,19 +13631,19 @@
         <v>93420</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>81249</v>
+        <v>82309</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>104665</v>
+        <v>104777</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.5883611000095516</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5117082591083939</v>
+        <v>0.5183854230575388</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6591820305153354</v>
+        <v>0.6598898164751624</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>210</v>
@@ -13652,19 +13652,19 @@
         <v>210046</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>188911</v>
+        <v>189751</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>229475</v>
+        <v>231044</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5197858466827556</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4674850873158125</v>
+        <v>0.4695626004775726</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5678660341931777</v>
+        <v>0.5717473404333357</v>
       </c>
     </row>
     <row r="40">
@@ -13681,19 +13681,19 @@
         <v>94500</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>77325</v>
+        <v>78666</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>110531</v>
+        <v>112095</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3852089641064917</v>
+        <v>0.3852089641064916</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3152012155720357</v>
+        <v>0.3206638960868279</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4505567355801093</v>
+        <v>0.4569314668275348</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>68</v>
@@ -13702,19 +13702,19 @@
         <v>57804</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>46790</v>
+        <v>46835</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>69257</v>
+        <v>69843</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3640491681362995</v>
+        <v>0.3640491681362996</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2946851170319053</v>
+        <v>0.2949651769943867</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4361794024115398</v>
+        <v>0.4398716193466738</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>148</v>
@@ -13723,19 +13723,19 @@
         <v>152304</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>133671</v>
+        <v>132562</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>173355</v>
+        <v>173126</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3768948227997828</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3307872096952213</v>
+        <v>0.3280423737190106</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4289884613261379</v>
+        <v>0.4284225738721796</v>
       </c>
     </row>
     <row r="41">
@@ -13752,19 +13752,19 @@
         <v>27422</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18211</v>
+        <v>18676</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>39763</v>
+        <v>39698</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1117799645576933</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07423322767062412</v>
+        <v>0.07612727787791045</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1620873806554821</v>
+        <v>0.1618186379773655</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -13773,19 +13773,19 @@
         <v>5506</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1987</v>
+        <v>2152</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10944</v>
+        <v>11752</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03467434184020534</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01251110194775973</v>
+        <v>0.01355449362552952</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06892772479413731</v>
+        <v>0.07401620381599844</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -13794,19 +13794,19 @@
         <v>32928</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22268</v>
+        <v>21960</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>47192</v>
+        <v>46401</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.08148349838580551</v>
+        <v>0.0814834983858055</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05510535127514463</v>
+        <v>0.05434177031789261</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1167833584562314</v>
+        <v>0.1148263877643933</v>
       </c>
     </row>
     <row r="42">
@@ -13823,19 +13823,19 @@
         <v>6773</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2309</v>
+        <v>2870</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14518</v>
+        <v>17138</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.0276094433821446</v>
+        <v>0.02760944338214459</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.00941029070670356</v>
+        <v>0.01169741493439185</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05918105841302944</v>
+        <v>0.06985930391089785</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8053</v>
+        <v>7201</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01291539001394353</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05071605415739408</v>
+        <v>0.04535400689966133</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -13865,19 +13865,19 @@
         <v>8824</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3629</v>
+        <v>3551</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>18613</v>
+        <v>17701</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.021835832131656</v>
+        <v>0.02183583213165599</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.00897941237146375</v>
+        <v>0.008786209759887413</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04606124750844145</v>
+        <v>0.04380365759580158</v>
       </c>
     </row>
     <row r="43">
@@ -13969,19 +13969,19 @@
         <v>572007</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>541287</v>
+        <v>535339</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>610773</v>
+        <v>604436</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5913980969326696</v>
+        <v>0.5913980969326699</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5596364274101434</v>
+        <v>0.5534866930422816</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6314777881696241</v>
+        <v>0.6249256543375049</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>684</v>
@@ -13990,19 +13990,19 @@
         <v>509814</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>486870</v>
+        <v>485378</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>530145</v>
+        <v>528459</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7184559509023551</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6861219560234145</v>
+        <v>0.6840199158596914</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7471072290992724</v>
+        <v>0.7447312738720838</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1166</v>
@@ -14011,19 +14011,19 @@
         <v>1081822</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1035016</v>
+        <v>1038828</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1121480</v>
+        <v>1124532</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6451668345984733</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6172533258280065</v>
+        <v>0.6195266353945754</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6688179425694361</v>
+        <v>0.6706378724658059</v>
       </c>
     </row>
     <row r="45">
@@ -14040,19 +14040,19 @@
         <v>266564</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>234768</v>
+        <v>236253</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>297296</v>
+        <v>298018</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2756005536657175</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2427267716902938</v>
+        <v>0.244262264640348</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3073738453718233</v>
+        <v>0.3081203805379278</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>186</v>
@@ -14061,19 +14061,19 @@
         <v>141362</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>123114</v>
+        <v>125004</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>162317</v>
+        <v>162971</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.1992147162150897</v>
+        <v>0.1992147162150896</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1734979211130174</v>
+        <v>0.1761617343980986</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2287456311484407</v>
+        <v>0.2296669658797596</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>420</v>
@@ -14082,19 +14082,19 @@
         <v>407926</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>372701</v>
+        <v>368819</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>443603</v>
+        <v>445663</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2432753574897655</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2222677982748163</v>
+        <v>0.2199526846384899</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2645519533564051</v>
+        <v>0.2657804520978775</v>
       </c>
     </row>
     <row r="46">
@@ -14111,19 +14111,19 @@
         <v>97031</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>76888</v>
+        <v>76396</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>122100</v>
+        <v>125602</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.10031987802882</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07949455171427385</v>
+        <v>0.07898584771585397</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1262391525766837</v>
+        <v>0.1298601153458973</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>38</v>
@@ -14132,19 +14132,19 @@
         <v>28291</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>20348</v>
+        <v>20525</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>38308</v>
+        <v>37738</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03986965127137051</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02867566197297168</v>
+        <v>0.02892457874384318</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05398572596372194</v>
+        <v>0.05318250309201283</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>115</v>
@@ -14153,19 +14153,19 @@
         <v>125322</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>100465</v>
+        <v>101672</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>150182</v>
+        <v>152015</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07473836312982647</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.05991455074857464</v>
+        <v>0.06063407168877266</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08956389258603212</v>
+        <v>0.09065751377076364</v>
       </c>
     </row>
     <row r="47">
@@ -14182,19 +14182,19 @@
         <v>31610</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>19984</v>
+        <v>20840</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>48162</v>
+        <v>49616</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0326814713727929</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02066191567770048</v>
+        <v>0.02154598660697312</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04979481774516387</v>
+        <v>0.05129821255549012</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>35</v>
@@ -14203,19 +14203,19 @@
         <v>30129</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>20748</v>
+        <v>21366</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>40839</v>
+        <v>41844</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04245968161118482</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02923956624787384</v>
+        <v>0.03010941952729927</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05755232643724535</v>
+        <v>0.05896861237515062</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>60</v>
@@ -14224,19 +14224,19 @@
         <v>61739</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>46522</v>
+        <v>46669</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>82452</v>
+        <v>80479</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03681944478193463</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02774417445746395</v>
+        <v>0.02783227230261137</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04917201992869737</v>
+        <v>0.04799509320137704</v>
       </c>
     </row>
     <row r="48">
